--- a/project_files/Tele2_IP_plan_v2.04-draft.xlsx
+++ b/project_files/Tele2_IP_plan_v2.04-draft.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20363"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\VEG\SeaFile\Tele2-2018-TMS\07. Design\IP-plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ve.gusarin\Seafile\Tele2-2018-TMS\07. Design\IP-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0DFA46-A88D-45A3-9A34-34C89EFC0C10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IP-plan" sheetId="1" r:id="rId1"/>
@@ -36,7 +35,7 @@
     <definedName name="sites_qnt">Dictionary!$K$2:$L$8</definedName>
     <definedName name="spb_d1" localSheetId="0">'IP-plan'!$A$5:$J$27</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -10813,7 +10812,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -12207,12 +12206,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12223,6 +12221,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12231,38 +12243,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -12274,21 +12267,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -12301,15 +12288,40 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -12322,19 +12334,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -13937,156 +13936,133 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица28" displayName="Таблица28" ref="A2:H226" totalsRowShown="0">
-  <autoFilter ref="A2:H226" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица28" displayName="Таблица28" ref="A2:H226" totalsRowShown="0">
+  <autoFilter ref="A2:H226"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Host"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="VM"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Interface"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="VLAN"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="VLAN ID" dataDxfId="9">
+    <tableColumn id="1" name="Host"/>
+    <tableColumn id="2" name="VM"/>
+    <tableColumn id="3" name="Interface"/>
+    <tableColumn id="4" name="VLAN"/>
+    <tableColumn id="5" name="VLAN ID" dataDxfId="9">
       <calculatedColumnFormula>IF(Таблица2811[[#This Row],[Site]]="Site1",VLOOKUP(Таблица2811[[#This Row],[VLAN]],Dictionary!$D$2:$F$14,2,FALSE),VLOOKUP(Таблица2811[[#This Row],[VLAN]],Dictionary!$D$2:$F$14,3,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="IP"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Site"/>
-    <tableColumn id="7" xr3:uid="{9D571722-4516-4BBC-9F0C-7542B935F7D2}" name="Domain"/>
+    <tableColumn id="6" name="IP"/>
+    <tableColumn id="8" name="Site"/>
+    <tableColumn id="7" name="Domain"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3B085DE9-7C9D-480B-92DE-574A11A865C8}" name="Таблица210" displayName="Таблица210" ref="A2:H302" totalsRowShown="0">
-  <autoFilter ref="A2:H302" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="psm01.mos (VRRP VIP)"/>
-        <filter val="psm01.mos1.tms.tele2.ru"/>
-        <filter val="psm01.mos2.tms.tele2.ru"/>
-        <filter val="psm02.mos (VRRP VIP)"/>
-        <filter val="psm02.mos1.tms.tele2.ru"/>
-        <filter val="psm02.mos2.tms.tele2.ru"/>
-        <filter val="psm03.mos (VRRP VIP)"/>
-        <filter val="psm03.mos1.tms.tele2.ru"/>
-        <filter val="psm03.mos2.tms.tele2.ru"/>
-        <filter val="psm04.mos (VRRP VIP)"/>
-        <filter val="psm04.mos1.tms.tele2.ru"/>
-        <filter val="psm04.mos2.tms.tele2.ru"/>
-        <filter val="psm05.mos (VRRP VIP)"/>
-        <filter val="psm05.mos1.tms.tele2.ru"/>
-        <filter val="psm05.mos2.tms.tele2.ru"/>
-        <filter val="psm06.mos (VRRP VIP)"/>
-        <filter val="psm06.mos1.tms.tele2.ru"/>
-        <filter val="psm06.mos2.tms.tele2.ru"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица210" displayName="Таблица210" ref="A2:H302" totalsRowShown="0">
+  <autoFilter ref="A2:H302"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{AA17E83E-EE00-49F9-A3F7-3F8C0EFEBFB0}" name="Host"/>
-    <tableColumn id="2" xr3:uid="{87880C31-1ACD-488E-A236-47EE5A168054}" name="VM"/>
-    <tableColumn id="3" xr3:uid="{F4690206-8347-4CCA-9774-4A1DB4D703EB}" name="Interface"/>
-    <tableColumn id="4" xr3:uid="{38769737-6986-4BD7-88A4-920CE81969B6}" name="VLAN"/>
-    <tableColumn id="5" xr3:uid="{4566F3CD-FDDC-4EF0-84B7-745A12BD7873}" name="VLAN ID" dataDxfId="8">
+    <tableColumn id="1" name="Host"/>
+    <tableColumn id="2" name="VM"/>
+    <tableColumn id="3" name="Interface"/>
+    <tableColumn id="4" name="VLAN"/>
+    <tableColumn id="5" name="VLAN ID" dataDxfId="8">
       <calculatedColumnFormula>IF(Таблица210[[#This Row],[Site]]="Site1",VLOOKUP(Таблица210[[#This Row],[VLAN]],Dictionary!$D$2:$F$15,2,FALSE),VLOOKUP(Таблица210[[#This Row],[VLAN]],Dictionary!$D$2:$F$15,3,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C5BE706F-7B58-49BF-B20D-2522584FCA00}" name="IP"/>
-    <tableColumn id="8" xr3:uid="{0A32EF08-B050-4BD0-9BA4-EEA1096A45B1}" name="Site"/>
-    <tableColumn id="7" xr3:uid="{9AEBC3A0-E030-424B-A891-934B5F848FA9}" name="Domain"/>
+    <tableColumn id="6" name="IP"/>
+    <tableColumn id="8" name="Site"/>
+    <tableColumn id="7" name="Domain"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2AF8B5A4-211C-4098-A9BD-3550B78C5FC4}" name="Таблица29" displayName="Таблица29" ref="A2:H305" totalsRowShown="0">
-  <autoFilter ref="A2:H305" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица29" displayName="Таблица29" ref="A2:H305" totalsRowShown="0">
+  <autoFilter ref="A2:H305"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{E477488C-9196-4B3A-BF3B-265B92ADA9CF}" name="Host"/>
-    <tableColumn id="2" xr3:uid="{305A831D-339D-4CF0-803E-7E2BD6511906}" name="VM"/>
-    <tableColumn id="3" xr3:uid="{C4D68DB9-A8D8-47A1-83F2-CEAC56245C8D}" name="Interface"/>
-    <tableColumn id="4" xr3:uid="{60EE0C8A-8774-401F-B215-1B411E6CBDBE}" name="VLAN"/>
-    <tableColumn id="5" xr3:uid="{0D850C13-6CC1-4F0B-987F-09E92D53E2FB}" name="VLAN ID" dataDxfId="7">
+    <tableColumn id="1" name="Host"/>
+    <tableColumn id="2" name="VM"/>
+    <tableColumn id="3" name="Interface"/>
+    <tableColumn id="4" name="VLAN"/>
+    <tableColumn id="5" name="VLAN ID" dataDxfId="7">
       <calculatedColumnFormula>IF(Таблица29[[#This Row],[Site]]="Site1",VLOOKUP(Таблица29[[#This Row],[VLAN]],Dictionary!$D$2:$F$15,2,FALSE),VLOOKUP(Таблица29[[#This Row],[VLAN]],Dictionary!$D$2:$F$15,3,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{916F763C-E123-4CCC-B4A9-50EAD85E48F6}" name="IP"/>
-    <tableColumn id="8" xr3:uid="{60D82884-90E2-4A54-9B46-8518A33D6632}" name="Site"/>
-    <tableColumn id="7" xr3:uid="{2AE30504-88F9-437D-9105-EDEDB1578E63}" name="Domain"/>
+    <tableColumn id="6" name="IP"/>
+    <tableColumn id="8" name="Site"/>
+    <tableColumn id="7" name="Domain"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Таблица28111417" displayName="Таблица28111417" ref="A2:H120" totalsRowShown="0">
-  <autoFilter ref="A2:H120" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица28111417" displayName="Таблица28111417" ref="A2:H120" totalsRowShown="0">
+  <autoFilter ref="A2:H120"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Host"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="VM"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Interface"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="VLAN"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="VLAN ID">
+    <tableColumn id="1" name="Host"/>
+    <tableColumn id="2" name="VM"/>
+    <tableColumn id="3" name="Interface"/>
+    <tableColumn id="4" name="VLAN"/>
+    <tableColumn id="5" name="VLAN ID">
       <calculatedColumnFormula>VLOOKUP(Таблица28111417[[#This Row],[VLAN]],Dictionary!$D$2:$E$11,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="IP"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Site"/>
-    <tableColumn id="7" xr3:uid="{E4383688-F348-41D5-B81D-29A50B696E92}" name="Domain"/>
+    <tableColumn id="6" name="IP"/>
+    <tableColumn id="8" name="Site"/>
+    <tableColumn id="7" name="Domain"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Таблица2811" displayName="Таблица2811" ref="A2:H226" totalsRowShown="0">
-  <autoFilter ref="A2:H226" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица2811" displayName="Таблица2811" ref="A2:H226" totalsRowShown="0">
+  <autoFilter ref="A2:H226"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Host"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="VM"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Interface"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="VLAN"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="VLAN ID" dataDxfId="6">
+    <tableColumn id="1" name="Host"/>
+    <tableColumn id="2" name="VM"/>
+    <tableColumn id="3" name="Interface"/>
+    <tableColumn id="4" name="VLAN"/>
+    <tableColumn id="5" name="VLAN ID" dataDxfId="6">
       <calculatedColumnFormula>IF(Таблица2811[[#This Row],[Site]]="Site1",VLOOKUP(Таблица2811[[#This Row],[VLAN]],Dictionary!$D$2:$F$14,2,FALSE),VLOOKUP(Таблица2811[[#This Row],[VLAN]],Dictionary!$D$2:$F$14,3,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="IP"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Site"/>
-    <tableColumn id="7" xr3:uid="{B8A657A8-A8FF-492E-BD33-09A5BF76D8E0}" name="Domain"/>
+    <tableColumn id="6" name="IP"/>
+    <tableColumn id="8" name="Site"/>
+    <tableColumn id="7" name="Domain"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Таблица281114" displayName="Таблица281114" ref="A3:H307" totalsRowShown="0">
-  <autoFilter ref="A3:H307" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица281114" displayName="Таблица281114" ref="A3:H307" totalsRowShown="0">
+  <autoFilter ref="A3:H307"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Host"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="VM"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Interface"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="VLAN"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="VLAN ID" dataDxfId="5">
+    <tableColumn id="1" name="Host"/>
+    <tableColumn id="2" name="VM"/>
+    <tableColumn id="3" name="Interface"/>
+    <tableColumn id="4" name="VLAN"/>
+    <tableColumn id="5" name="VLAN ID" dataDxfId="5">
       <calculatedColumnFormula>IF(Таблица281114[[#This Row],[Site]]="Site1",VLOOKUP(Таблица281114[[#This Row],[VLAN]],Dictionary!$D$2:$F$14,2,FALSE),VLOOKUP(Таблица281114[[#This Row],[VLAN]],Dictionary!$D$2:$F$14,3,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="IP"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Site"/>
-    <tableColumn id="7" xr3:uid="{A2C6888F-CE94-4090-85C3-AAF78AD01C05}" name="Domain"/>
+    <tableColumn id="6" name="IP"/>
+    <tableColumn id="8" name="Site"/>
+    <tableColumn id="7" name="Domain"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Таблица2811141720" displayName="Таблица2811141720" ref="A3:H307" totalsRowShown="0">
-  <autoFilter ref="A3:H307" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица2811141720" displayName="Таблица2811141720" ref="A3:H307" totalsRowShown="0">
+  <autoFilter ref="A3:H307"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Host"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="VM"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Interface"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="VLAN"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="VLAN ID" dataDxfId="4">
+    <tableColumn id="1" name="Host"/>
+    <tableColumn id="2" name="VM"/>
+    <tableColumn id="3" name="Interface"/>
+    <tableColumn id="4" name="VLAN"/>
+    <tableColumn id="5" name="VLAN ID" dataDxfId="4">
       <calculatedColumnFormula>IF(Таблица2811141720[[#This Row],[Site]]="Site1",VLOOKUP(Таблица2811141720[[#This Row],[VLAN]],Dictionary!$D$2:$F$14,2,FALSE),VLOOKUP(Таблица2811141720[[#This Row],[VLAN]],Dictionary!$D$2:$F$14,3,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="IP"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Site"/>
-    <tableColumn id="7" xr3:uid="{E25540FF-5A9A-4FB0-B751-010157CC296B}" name="Domain"/>
+    <tableColumn id="6" name="IP"/>
+    <tableColumn id="8" name="Site"/>
+    <tableColumn id="7" name="Domain"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14354,7 +14330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P188"/>
   <sheetViews>
     <sheetView topLeftCell="A56" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -14386,42 +14362,42 @@
       <c r="B2" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="199" t="s">
+      <c r="C2" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="201"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="192"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="176"/>
       <c r="B3" s="179"/>
-      <c r="C3" s="198" t="s">
+      <c r="C3" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="203" t="s">
+      <c r="D3" s="194" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="202" t="s">
+      <c r="E3" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="200"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="199" t="s">
+      <c r="F3" s="191"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="200"/>
-      <c r="J3" s="201"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="192"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="177"/>
       <c r="B4" s="180"/>
       <c r="C4" s="177"/>
-      <c r="D4" s="195"/>
+      <c r="D4" s="185"/>
       <c r="E4" s="69" t="s">
         <v>7</v>
       </c>
@@ -15121,7 +15097,7 @@
       <c r="G30" s="182"/>
       <c r="H30" s="182"/>
       <c r="I30" s="182"/>
-      <c r="J30" s="183"/>
+      <c r="J30" s="202"/>
       <c r="N30" s="83"/>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -15130,27 +15106,27 @@
       <c r="C31" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="185" t="s">
+      <c r="D31" s="184" t="s">
         <v>95</v>
       </c>
       <c r="E31" s="166"/>
-      <c r="F31" s="187" t="s">
+      <c r="F31" s="186" t="s">
         <v>97</v>
       </c>
-      <c r="G31" s="188"/>
+      <c r="G31" s="187"/>
       <c r="H31" s="169"/>
-      <c r="I31" s="189" t="s">
+      <c r="I31" s="188" t="s">
         <v>96</v>
       </c>
-      <c r="J31" s="190"/>
+      <c r="J31" s="189"/>
       <c r="O31"/>
       <c r="P31"/>
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="177"/>
       <c r="B32" s="180"/>
-      <c r="C32" s="184"/>
-      <c r="D32" s="186"/>
+      <c r="C32" s="203"/>
+      <c r="D32" s="204"/>
       <c r="E32" s="109" t="s">
         <v>7</v>
       </c>
@@ -15924,7 +15900,7 @@
       <c r="G59" s="182"/>
       <c r="H59" s="182"/>
       <c r="I59" s="182"/>
-      <c r="J59" s="204"/>
+      <c r="J59" s="183"/>
       <c r="N59" s="83"/>
     </row>
     <row r="60" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -15933,25 +15909,25 @@
       <c r="C60" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="185" t="s">
+      <c r="D60" s="184" t="s">
         <v>95</v>
       </c>
       <c r="E60" s="130"/>
-      <c r="F60" s="187" t="s">
+      <c r="F60" s="186" t="s">
         <v>97</v>
       </c>
-      <c r="G60" s="188"/>
+      <c r="G60" s="187"/>
       <c r="H60" s="169"/>
-      <c r="I60" s="189" t="s">
+      <c r="I60" s="188" t="s">
         <v>96</v>
       </c>
-      <c r="J60" s="190"/>
+      <c r="J60" s="189"/>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="177"/>
       <c r="B61" s="180"/>
       <c r="C61" s="177"/>
-      <c r="D61" s="195"/>
+      <c r="D61" s="185"/>
       <c r="E61" s="109" t="s">
         <v>7</v>
       </c>
@@ -16704,39 +16680,39 @@
       <c r="C89" s="175" t="s">
         <v>170</v>
       </c>
-      <c r="D89" s="191"/>
-      <c r="E89" s="191"/>
-      <c r="F89" s="191"/>
-      <c r="G89" s="191"/>
-      <c r="H89" s="191"/>
-      <c r="I89" s="191"/>
-      <c r="J89" s="192"/>
+      <c r="D89" s="196"/>
+      <c r="E89" s="196"/>
+      <c r="F89" s="196"/>
+      <c r="G89" s="196"/>
+      <c r="H89" s="196"/>
+      <c r="I89" s="196"/>
+      <c r="J89" s="197"/>
     </row>
     <row r="90" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="176"/>
       <c r="B90" s="179"/>
-      <c r="C90" s="193" t="s">
+      <c r="C90" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="D90" s="194" t="s">
+      <c r="D90" s="199" t="s">
         <v>95</v>
       </c>
       <c r="E90" s="65"/>
-      <c r="F90" s="196" t="s">
+      <c r="F90" s="200" t="s">
         <v>171</v>
       </c>
-      <c r="G90" s="192"/>
+      <c r="G90" s="197"/>
       <c r="H90" s="67"/>
       <c r="I90" s="175" t="s">
         <v>172</v>
       </c>
-      <c r="J90" s="192"/>
+      <c r="J90" s="197"/>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="177"/>
       <c r="B91" s="180"/>
       <c r="C91" s="177"/>
-      <c r="D91" s="195"/>
+      <c r="D91" s="185"/>
       <c r="E91" s="66"/>
       <c r="F91" s="44" t="s">
         <v>8</v>
@@ -17104,42 +17080,42 @@
       <c r="B107" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="C107" s="199" t="s">
+      <c r="C107" s="190" t="s">
         <v>207</v>
       </c>
-      <c r="D107" s="200"/>
-      <c r="E107" s="200"/>
-      <c r="F107" s="200"/>
-      <c r="G107" s="200"/>
-      <c r="H107" s="200"/>
-      <c r="I107" s="200"/>
-      <c r="J107" s="201"/>
+      <c r="D107" s="191"/>
+      <c r="E107" s="191"/>
+      <c r="F107" s="191"/>
+      <c r="G107" s="191"/>
+      <c r="H107" s="191"/>
+      <c r="I107" s="191"/>
+      <c r="J107" s="192"/>
     </row>
     <row r="108" spans="1:10" ht="15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="176"/>
       <c r="B108" s="179"/>
-      <c r="C108" s="198" t="s">
+      <c r="C108" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="D108" s="203" t="s">
+      <c r="D108" s="194" t="s">
         <v>4</v>
       </c>
-      <c r="E108" s="202" t="s">
+      <c r="E108" s="195" t="s">
         <v>208</v>
       </c>
-      <c r="F108" s="200"/>
-      <c r="G108" s="201"/>
-      <c r="H108" s="199" t="s">
+      <c r="F108" s="191"/>
+      <c r="G108" s="192"/>
+      <c r="H108" s="190" t="s">
         <v>209</v>
       </c>
-      <c r="I108" s="200"/>
-      <c r="J108" s="201"/>
+      <c r="I108" s="191"/>
+      <c r="J108" s="192"/>
     </row>
     <row r="109" spans="1:10" ht="15.75" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="177"/>
       <c r="B109" s="180"/>
       <c r="C109" s="177"/>
-      <c r="D109" s="195"/>
+      <c r="D109" s="185"/>
       <c r="E109" s="69" t="s">
         <v>7</v>
       </c>
@@ -17846,40 +17822,40 @@
       <c r="C134" s="175" t="s">
         <v>260</v>
       </c>
-      <c r="D134" s="191"/>
-      <c r="E134" s="191"/>
-      <c r="F134" s="191"/>
-      <c r="G134" s="191"/>
-      <c r="H134" s="191"/>
-      <c r="I134" s="191"/>
-      <c r="J134" s="192"/>
+      <c r="D134" s="196"/>
+      <c r="E134" s="196"/>
+      <c r="F134" s="196"/>
+      <c r="G134" s="196"/>
+      <c r="H134" s="196"/>
+      <c r="I134" s="196"/>
+      <c r="J134" s="197"/>
       <c r="M134" s="78"/>
     </row>
     <row r="135" spans="1:13" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A135" s="176"/>
       <c r="B135" s="179"/>
-      <c r="C135" s="193" t="s">
+      <c r="C135" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="D135" s="194" t="s">
+      <c r="D135" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="E135" s="196" t="s">
+      <c r="E135" s="200" t="s">
         <v>261</v>
       </c>
-      <c r="F135" s="191"/>
-      <c r="G135" s="192"/>
-      <c r="H135" s="197" t="s">
+      <c r="F135" s="196"/>
+      <c r="G135" s="197"/>
+      <c r="H135" s="201" t="s">
         <v>262</v>
       </c>
-      <c r="I135" s="191"/>
-      <c r="J135" s="190"/>
+      <c r="I135" s="196"/>
+      <c r="J135" s="189"/>
     </row>
     <row r="136" spans="1:13" ht="15.75" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="177"/>
       <c r="B136" s="180"/>
       <c r="C136" s="177"/>
-      <c r="D136" s="195"/>
+      <c r="D136" s="185"/>
       <c r="E136" s="109" t="s">
         <v>7</v>
       </c>
@@ -18628,42 +18604,42 @@
       <c r="B163" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="C163" s="199" t="s">
+      <c r="C163" s="190" t="s">
         <v>311</v>
       </c>
-      <c r="D163" s="200"/>
-      <c r="E163" s="200"/>
-      <c r="F163" s="200"/>
-      <c r="G163" s="200"/>
-      <c r="H163" s="200"/>
-      <c r="I163" s="200"/>
-      <c r="J163" s="201"/>
+      <c r="D163" s="191"/>
+      <c r="E163" s="191"/>
+      <c r="F163" s="191"/>
+      <c r="G163" s="191"/>
+      <c r="H163" s="191"/>
+      <c r="I163" s="191"/>
+      <c r="J163" s="192"/>
     </row>
     <row r="164" spans="1:10" ht="15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="176"/>
       <c r="B164" s="179"/>
-      <c r="C164" s="198" t="s">
+      <c r="C164" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="D164" s="203" t="s">
+      <c r="D164" s="194" t="s">
         <v>4</v>
       </c>
-      <c r="E164" s="202" t="s">
+      <c r="E164" s="195" t="s">
         <v>312</v>
       </c>
-      <c r="F164" s="200"/>
-      <c r="G164" s="201"/>
-      <c r="H164" s="199" t="s">
+      <c r="F164" s="191"/>
+      <c r="G164" s="192"/>
+      <c r="H164" s="190" t="s">
         <v>313</v>
       </c>
-      <c r="I164" s="200"/>
-      <c r="J164" s="201"/>
+      <c r="I164" s="191"/>
+      <c r="J164" s="192"/>
     </row>
     <row r="165" spans="1:10" ht="15.75" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="177"/>
       <c r="B165" s="180"/>
       <c r="C165" s="177"/>
-      <c r="D165" s="195"/>
+      <c r="D165" s="185"/>
       <c r="E165" s="69" t="s">
         <v>7</v>
       </c>
@@ -19406,27 +19382,20 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="C163:J163"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="E164:G164"/>
-    <mergeCell ref="H164:J164"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="C134:J134"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="E135:G135"/>
+    <mergeCell ref="H135:J135"/>
     <mergeCell ref="C108:C109"/>
     <mergeCell ref="A107:A109"/>
     <mergeCell ref="B107:B109"/>
@@ -19441,20 +19410,27 @@
     <mergeCell ref="E108:G108"/>
     <mergeCell ref="H108:J108"/>
     <mergeCell ref="D108:D109"/>
-    <mergeCell ref="A134:A136"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="C134:J134"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="E135:G135"/>
-    <mergeCell ref="H135:J135"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="C163:J163"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E164:G164"/>
+    <mergeCell ref="H164:J164"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="I60:J60"/>
   </mergeCells>
   <conditionalFormatting sqref="A92:J99 C57:J58 A103:J104 B100:J102 A130:J131 O28:P28 A28:M28 C138:E138 F137:J138 F144:J144 C150:J160 A150:B151 J149 H146:H149 E146:E149 G142:H143 E142:E143 A143:D143 F141 E140:J140 A110:J111 A112:D118 E112:E122 F112:J118 A123:J124 B125:J129 C166:C172 A173:D173 E166:J167 F179:J179 A179:D179 F168:J173 E168:E188 C86:J86">
     <cfRule type="expression" dxfId="228" priority="306">
@@ -20545,7 +20521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -20622,36 +20598,36 @@
     </row>
     <row r="5" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A5" s="124"/>
-      <c r="B5" s="208" t="s">
+      <c r="B5" s="212" t="s">
         <v>2814</v>
       </c>
-      <c r="C5" s="191"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="207" t="s">
+      <c r="C5" s="196"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="214" t="s">
         <v>2676</v>
       </c>
-      <c r="F5" s="190"/>
+      <c r="F5" s="189"/>
       <c r="G5" s="35"/>
-      <c r="H5" s="211" t="s">
+      <c r="H5" s="209" t="s">
         <v>2814</v>
       </c>
-      <c r="I5" s="191"/>
-      <c r="J5" s="190"/>
-      <c r="K5" s="207" t="s">
+      <c r="I5" s="196"/>
+      <c r="J5" s="189"/>
+      <c r="K5" s="214" t="s">
         <v>2678</v>
       </c>
-      <c r="L5" s="192"/>
-      <c r="M5" s="214" t="s">
+      <c r="L5" s="197"/>
+      <c r="M5" s="213" t="s">
         <v>3225</v>
       </c>
-      <c r="N5" s="192"/>
-      <c r="O5" s="215" t="s">
+      <c r="N5" s="197"/>
+      <c r="O5" s="229" t="s">
         <v>3226</v>
       </c>
-      <c r="P5" s="215" t="s">
+      <c r="P5" s="229" t="s">
         <v>3227</v>
       </c>
-      <c r="Q5" s="217" t="s">
+      <c r="Q5" s="230" t="s">
         <v>3228</v>
       </c>
     </row>
@@ -20696,9 +20672,9 @@
       <c r="N6" s="172" t="s">
         <v>3231</v>
       </c>
-      <c r="O6" s="216"/>
-      <c r="P6" s="216"/>
-      <c r="Q6" s="218"/>
+      <c r="O6" s="231"/>
+      <c r="P6" s="231"/>
+      <c r="Q6" s="232"/>
     </row>
     <row r="7" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
@@ -20710,13 +20686,13 @@
       <c r="C7" s="19" t="s">
         <v>2750</v>
       </c>
-      <c r="D7" s="219">
+      <c r="D7" s="226">
         <v>64579</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>2751</v>
       </c>
-      <c r="F7" s="219">
+      <c r="F7" s="226">
         <v>64515</v>
       </c>
       <c r="G7" s="10"/>
@@ -20726,13 +20702,13 @@
       <c r="I7" s="19" t="s">
         <v>2753</v>
       </c>
-      <c r="J7" s="219">
+      <c r="J7" s="226">
         <v>64579</v>
       </c>
       <c r="K7" s="21" t="s">
         <v>2754</v>
       </c>
-      <c r="L7" s="219">
+      <c r="L7" s="226">
         <v>64515</v>
       </c>
       <c r="M7" s="8">
@@ -20761,11 +20737,11 @@
       <c r="C8" s="96" t="s">
         <v>2756</v>
       </c>
-      <c r="D8" s="220"/>
+      <c r="D8" s="227"/>
       <c r="E8" s="22" t="s">
         <v>2757</v>
       </c>
-      <c r="F8" s="220"/>
+      <c r="F8" s="227"/>
       <c r="G8" s="10"/>
       <c r="H8" s="167" t="s">
         <v>3236</v>
@@ -20773,11 +20749,11 @@
       <c r="I8" s="96" t="s">
         <v>2759</v>
       </c>
-      <c r="J8" s="220"/>
+      <c r="J8" s="227"/>
       <c r="K8" s="22" t="s">
         <v>2760</v>
       </c>
-      <c r="L8" s="220"/>
+      <c r="L8" s="227"/>
       <c r="M8" s="6">
         <v>3</v>
       </c>
@@ -20804,11 +20780,11 @@
       <c r="C9" s="96" t="s">
         <v>2762</v>
       </c>
-      <c r="D9" s="220"/>
+      <c r="D9" s="227"/>
       <c r="E9" s="22" t="s">
         <v>2763</v>
       </c>
-      <c r="F9" s="220"/>
+      <c r="F9" s="227"/>
       <c r="G9" s="10"/>
       <c r="H9" s="167" t="s">
         <v>3238</v>
@@ -20816,11 +20792,11 @@
       <c r="I9" s="96" t="s">
         <v>2765</v>
       </c>
-      <c r="J9" s="220"/>
+      <c r="J9" s="227"/>
       <c r="K9" s="22" t="s">
         <v>2766</v>
       </c>
-      <c r="L9" s="220"/>
+      <c r="L9" s="227"/>
       <c r="M9" s="6">
         <v>3</v>
       </c>
@@ -20847,11 +20823,11 @@
       <c r="C10" s="96" t="s">
         <v>2768</v>
       </c>
-      <c r="D10" s="220"/>
+      <c r="D10" s="227"/>
       <c r="E10" s="22" t="s">
         <v>2769</v>
       </c>
-      <c r="F10" s="220"/>
+      <c r="F10" s="227"/>
       <c r="G10" s="10"/>
       <c r="H10" s="167" t="s">
         <v>3240</v>
@@ -20859,11 +20835,11 @@
       <c r="I10" s="96" t="s">
         <v>2771</v>
       </c>
-      <c r="J10" s="220"/>
+      <c r="J10" s="227"/>
       <c r="K10" s="22" t="s">
         <v>2772</v>
       </c>
-      <c r="L10" s="220"/>
+      <c r="L10" s="227"/>
       <c r="M10" s="6">
         <v>3</v>
       </c>
@@ -20890,11 +20866,11 @@
       <c r="C11" s="23" t="s">
         <v>2774</v>
       </c>
-      <c r="D11" s="218"/>
+      <c r="D11" s="232"/>
       <c r="E11" s="24" t="s">
         <v>2775</v>
       </c>
-      <c r="F11" s="218"/>
+      <c r="F11" s="232"/>
       <c r="G11" s="10"/>
       <c r="H11" s="31" t="s">
         <v>3242</v>
@@ -20902,11 +20878,11 @@
       <c r="I11" s="23" t="s">
         <v>2777</v>
       </c>
-      <c r="J11" s="218"/>
+      <c r="J11" s="232"/>
       <c r="K11" s="24" t="s">
         <v>2778</v>
       </c>
-      <c r="L11" s="218"/>
+      <c r="L11" s="232"/>
       <c r="M11" s="7">
         <v>3</v>
       </c>
@@ -20931,36 +20907,36 @@
     </row>
     <row r="14" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A14" s="124"/>
-      <c r="B14" s="208" t="s">
+      <c r="B14" s="212" t="s">
         <v>3243</v>
       </c>
-      <c r="C14" s="191"/>
-      <c r="D14" s="190"/>
-      <c r="E14" s="207" t="s">
+      <c r="C14" s="196"/>
+      <c r="D14" s="189"/>
+      <c r="E14" s="214" t="s">
         <v>2713</v>
       </c>
-      <c r="F14" s="190"/>
+      <c r="F14" s="189"/>
       <c r="G14" s="35"/>
-      <c r="H14" s="211" t="s">
+      <c r="H14" s="209" t="s">
         <v>3243</v>
       </c>
-      <c r="I14" s="191"/>
-      <c r="J14" s="190"/>
-      <c r="K14" s="207" t="s">
+      <c r="I14" s="196"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="214" t="s">
         <v>2713</v>
       </c>
-      <c r="L14" s="192"/>
-      <c r="M14" s="214" t="s">
+      <c r="L14" s="197"/>
+      <c r="M14" s="213" t="s">
         <v>3225</v>
       </c>
-      <c r="N14" s="192"/>
-      <c r="O14" s="215" t="s">
+      <c r="N14" s="197"/>
+      <c r="O14" s="229" t="s">
         <v>3226</v>
       </c>
-      <c r="P14" s="215" t="s">
+      <c r="P14" s="229" t="s">
         <v>3227</v>
       </c>
-      <c r="Q14" s="217" t="s">
+      <c r="Q14" s="230" t="s">
         <v>3228</v>
       </c>
     </row>
@@ -21005,9 +20981,9 @@
       <c r="N15" s="172" t="s">
         <v>3231</v>
       </c>
-      <c r="O15" s="216"/>
-      <c r="P15" s="216"/>
-      <c r="Q15" s="218"/>
+      <c r="O15" s="231"/>
+      <c r="P15" s="231"/>
+      <c r="Q15" s="232"/>
     </row>
     <row r="16" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A16" s="62" t="s">
@@ -21019,13 +20995,13 @@
       <c r="C16" s="19" t="s">
         <v>2784</v>
       </c>
-      <c r="D16" s="219">
+      <c r="D16" s="226">
         <v>64921</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>2785</v>
       </c>
-      <c r="F16" s="219">
+      <c r="F16" s="226">
         <v>64515</v>
       </c>
       <c r="G16" s="10"/>
@@ -21035,13 +21011,13 @@
       <c r="I16" s="19" t="s">
         <v>2787</v>
       </c>
-      <c r="J16" s="219">
+      <c r="J16" s="226">
         <v>64921</v>
       </c>
       <c r="K16" s="21" t="s">
         <v>2788</v>
       </c>
-      <c r="L16" s="219">
+      <c r="L16" s="226">
         <v>64515</v>
       </c>
       <c r="M16" s="8">
@@ -21070,11 +21046,11 @@
       <c r="C17" s="96" t="s">
         <v>2790</v>
       </c>
-      <c r="D17" s="220"/>
+      <c r="D17" s="227"/>
       <c r="E17" s="22" t="s">
         <v>2791</v>
       </c>
-      <c r="F17" s="220"/>
+      <c r="F17" s="227"/>
       <c r="G17" s="10"/>
       <c r="H17" s="167" t="s">
         <v>3247</v>
@@ -21082,11 +21058,11 @@
       <c r="I17" s="96" t="s">
         <v>2793</v>
       </c>
-      <c r="J17" s="220"/>
+      <c r="J17" s="227"/>
       <c r="K17" s="22" t="s">
         <v>2794</v>
       </c>
-      <c r="L17" s="220"/>
+      <c r="L17" s="227"/>
       <c r="M17" s="6">
         <v>3</v>
       </c>
@@ -21113,11 +21089,11 @@
       <c r="C18" s="96" t="s">
         <v>2796</v>
       </c>
-      <c r="D18" s="220"/>
+      <c r="D18" s="227"/>
       <c r="E18" s="22" t="s">
         <v>2797</v>
       </c>
-      <c r="F18" s="220"/>
+      <c r="F18" s="227"/>
       <c r="G18" s="10"/>
       <c r="H18" s="167" t="s">
         <v>3249</v>
@@ -21125,11 +21101,11 @@
       <c r="I18" s="96" t="s">
         <v>2799</v>
       </c>
-      <c r="J18" s="220"/>
+      <c r="J18" s="227"/>
       <c r="K18" s="22" t="s">
         <v>2800</v>
       </c>
-      <c r="L18" s="220"/>
+      <c r="L18" s="227"/>
       <c r="M18" s="6">
         <v>3</v>
       </c>
@@ -21156,11 +21132,11 @@
       <c r="C19" s="96" t="s">
         <v>2802</v>
       </c>
-      <c r="D19" s="220"/>
+      <c r="D19" s="227"/>
       <c r="E19" s="22" t="s">
         <v>2803</v>
       </c>
-      <c r="F19" s="220"/>
+      <c r="F19" s="227"/>
       <c r="G19" s="10"/>
       <c r="H19" s="167" t="s">
         <v>3251</v>
@@ -21168,11 +21144,11 @@
       <c r="I19" s="96" t="s">
         <v>2805</v>
       </c>
-      <c r="J19" s="220"/>
+      <c r="J19" s="227"/>
       <c r="K19" s="22" t="s">
         <v>2806</v>
       </c>
-      <c r="L19" s="220"/>
+      <c r="L19" s="227"/>
       <c r="M19" s="6">
         <v>3</v>
       </c>
@@ -21199,11 +21175,11 @@
       <c r="C20" s="23" t="s">
         <v>2808</v>
       </c>
-      <c r="D20" s="218"/>
+      <c r="D20" s="232"/>
       <c r="E20" s="24" t="s">
         <v>2809</v>
       </c>
-      <c r="F20" s="218"/>
+      <c r="F20" s="232"/>
       <c r="G20" s="10"/>
       <c r="H20" s="31" t="s">
         <v>3253</v>
@@ -21211,11 +21187,11 @@
       <c r="I20" s="23" t="s">
         <v>2811</v>
       </c>
-      <c r="J20" s="218"/>
+      <c r="J20" s="232"/>
       <c r="K20" s="24" t="s">
         <v>2812</v>
       </c>
-      <c r="L20" s="218"/>
+      <c r="L20" s="232"/>
       <c r="M20" s="7">
         <v>3</v>
       </c>
@@ -21245,36 +21221,36 @@
     </row>
     <row r="24" spans="1:17" s="9" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A24" s="123"/>
-      <c r="B24" s="208" t="s">
+      <c r="B24" s="212" t="s">
         <v>2815</v>
       </c>
-      <c r="C24" s="191"/>
-      <c r="D24" s="190"/>
-      <c r="E24" s="214" t="s">
+      <c r="C24" s="196"/>
+      <c r="D24" s="189"/>
+      <c r="E24" s="213" t="s">
         <v>2746</v>
       </c>
-      <c r="F24" s="190"/>
+      <c r="F24" s="189"/>
       <c r="G24" s="32"/>
-      <c r="H24" s="211" t="s">
+      <c r="H24" s="209" t="s">
         <v>2815</v>
       </c>
-      <c r="I24" s="191"/>
-      <c r="J24" s="190"/>
-      <c r="K24" s="214" t="s">
+      <c r="I24" s="196"/>
+      <c r="J24" s="189"/>
+      <c r="K24" s="213" t="s">
         <v>2748</v>
       </c>
-      <c r="L24" s="192"/>
-      <c r="M24" s="214" t="s">
+      <c r="L24" s="197"/>
+      <c r="M24" s="213" t="s">
         <v>3225</v>
       </c>
-      <c r="N24" s="192"/>
-      <c r="O24" s="215" t="s">
+      <c r="N24" s="197"/>
+      <c r="O24" s="229" t="s">
         <v>3226</v>
       </c>
-      <c r="P24" s="215" t="s">
+      <c r="P24" s="229" t="s">
         <v>3227</v>
       </c>
-      <c r="Q24" s="217" t="s">
+      <c r="Q24" s="230" t="s">
         <v>3228</v>
       </c>
     </row>
@@ -21319,9 +21295,9 @@
       <c r="N25" s="172" t="s">
         <v>3231</v>
       </c>
-      <c r="O25" s="216"/>
-      <c r="P25" s="216"/>
-      <c r="Q25" s="218"/>
+      <c r="O25" s="231"/>
+      <c r="P25" s="231"/>
+      <c r="Q25" s="232"/>
     </row>
     <row r="26" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="62" t="s">
@@ -21333,13 +21309,13 @@
       <c r="C26" s="19" t="s">
         <v>2682</v>
       </c>
-      <c r="D26" s="219">
+      <c r="D26" s="226">
         <v>64578</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>2683</v>
       </c>
-      <c r="F26" s="219">
+      <c r="F26" s="226">
         <v>64515</v>
       </c>
       <c r="G26" s="10"/>
@@ -21349,13 +21325,13 @@
       <c r="I26" s="19" t="s">
         <v>2685</v>
       </c>
-      <c r="J26" s="219">
+      <c r="J26" s="226">
         <v>64578</v>
       </c>
       <c r="K26" s="21" t="s">
         <v>2686</v>
       </c>
-      <c r="L26" s="238">
+      <c r="L26" s="236">
         <v>64515</v>
       </c>
       <c r="M26" s="8">
@@ -21384,11 +21360,11 @@
       <c r="C27" s="96" t="s">
         <v>2688</v>
       </c>
-      <c r="D27" s="220"/>
+      <c r="D27" s="227"/>
       <c r="E27" s="22" t="s">
         <v>2689</v>
       </c>
-      <c r="F27" s="220"/>
+      <c r="F27" s="227"/>
       <c r="G27" s="10"/>
       <c r="H27" s="167" t="s">
         <v>3236</v>
@@ -21396,11 +21372,11 @@
       <c r="I27" s="96" t="s">
         <v>2691</v>
       </c>
-      <c r="J27" s="220"/>
+      <c r="J27" s="227"/>
       <c r="K27" s="22" t="s">
         <v>2692</v>
       </c>
-      <c r="L27" s="231"/>
+      <c r="L27" s="222"/>
       <c r="M27" s="6">
         <v>3</v>
       </c>
@@ -21427,11 +21403,11 @@
       <c r="C28" s="96" t="s">
         <v>2694</v>
       </c>
-      <c r="D28" s="220"/>
+      <c r="D28" s="227"/>
       <c r="E28" s="22" t="s">
         <v>2695</v>
       </c>
-      <c r="F28" s="220"/>
+      <c r="F28" s="227"/>
       <c r="G28" s="10"/>
       <c r="H28" s="167" t="s">
         <v>3238</v>
@@ -21439,11 +21415,11 @@
       <c r="I28" s="96" t="s">
         <v>2697</v>
       </c>
-      <c r="J28" s="220"/>
+      <c r="J28" s="227"/>
       <c r="K28" s="22" t="s">
         <v>2698</v>
       </c>
-      <c r="L28" s="231"/>
+      <c r="L28" s="222"/>
       <c r="M28" s="6">
         <v>3</v>
       </c>
@@ -21470,11 +21446,11 @@
       <c r="C29" s="96" t="s">
         <v>2700</v>
       </c>
-      <c r="D29" s="220"/>
+      <c r="D29" s="227"/>
       <c r="E29" s="22" t="s">
         <v>2701</v>
       </c>
-      <c r="F29" s="220"/>
+      <c r="F29" s="227"/>
       <c r="G29" s="10"/>
       <c r="H29" s="167" t="s">
         <v>3240</v>
@@ -21482,11 +21458,11 @@
       <c r="I29" s="96" t="s">
         <v>2703</v>
       </c>
-      <c r="J29" s="220"/>
+      <c r="J29" s="227"/>
       <c r="K29" s="22" t="s">
         <v>2704</v>
       </c>
-      <c r="L29" s="231"/>
+      <c r="L29" s="222"/>
       <c r="M29" s="6">
         <v>3</v>
       </c>
@@ -21513,11 +21489,11 @@
       <c r="C30" s="23" t="s">
         <v>2707</v>
       </c>
-      <c r="D30" s="218"/>
+      <c r="D30" s="232"/>
       <c r="E30" s="24" t="s">
         <v>2708</v>
       </c>
-      <c r="F30" s="218"/>
+      <c r="F30" s="232"/>
       <c r="G30" s="10"/>
       <c r="H30" s="31" t="s">
         <v>3242</v>
@@ -21525,11 +21501,11 @@
       <c r="I30" s="23" t="s">
         <v>2710</v>
       </c>
-      <c r="J30" s="218"/>
+      <c r="J30" s="232"/>
       <c r="K30" s="24" t="s">
         <v>2711</v>
       </c>
-      <c r="L30" s="186"/>
+      <c r="L30" s="204"/>
       <c r="M30" s="7">
         <v>3</v>
       </c>
@@ -21564,36 +21540,36 @@
     </row>
     <row r="33" spans="1:17" s="9" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="123"/>
-      <c r="B33" s="208" t="s">
+      <c r="B33" s="212" t="s">
         <v>2816</v>
       </c>
-      <c r="C33" s="191"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="214" t="s">
+      <c r="C33" s="196"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="213" t="s">
         <v>2780</v>
       </c>
-      <c r="F33" s="190"/>
+      <c r="F33" s="189"/>
       <c r="G33" s="32"/>
-      <c r="H33" s="211" t="s">
+      <c r="H33" s="209" t="s">
         <v>2816</v>
       </c>
-      <c r="I33" s="191"/>
-      <c r="J33" s="190"/>
-      <c r="K33" s="214" t="s">
+      <c r="I33" s="196"/>
+      <c r="J33" s="189"/>
+      <c r="K33" s="213" t="s">
         <v>2782</v>
       </c>
-      <c r="L33" s="192"/>
-      <c r="M33" s="214" t="s">
+      <c r="L33" s="197"/>
+      <c r="M33" s="213" t="s">
         <v>3225</v>
       </c>
-      <c r="N33" s="192"/>
-      <c r="O33" s="215" t="s">
+      <c r="N33" s="197"/>
+      <c r="O33" s="229" t="s">
         <v>3226</v>
       </c>
-      <c r="P33" s="215" t="s">
+      <c r="P33" s="229" t="s">
         <v>3227</v>
       </c>
-      <c r="Q33" s="217" t="s">
+      <c r="Q33" s="230" t="s">
         <v>3228</v>
       </c>
     </row>
@@ -21638,9 +21614,9 @@
       <c r="N34" s="172" t="s">
         <v>3231</v>
       </c>
-      <c r="O34" s="216"/>
-      <c r="P34" s="216"/>
-      <c r="Q34" s="218"/>
+      <c r="O34" s="231"/>
+      <c r="P34" s="231"/>
+      <c r="Q34" s="232"/>
     </row>
     <row r="35" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="62" t="s">
@@ -21652,13 +21628,13 @@
       <c r="C35" s="19" t="s">
         <v>2716</v>
       </c>
-      <c r="D35" s="219">
+      <c r="D35" s="226">
         <v>64920</v>
       </c>
       <c r="E35" s="21" t="s">
         <v>2717</v>
       </c>
-      <c r="F35" s="219">
+      <c r="F35" s="226">
         <v>64515</v>
       </c>
       <c r="G35" s="10"/>
@@ -21668,13 +21644,13 @@
       <c r="I35" s="19" t="s">
         <v>2719</v>
       </c>
-      <c r="J35" s="219">
+      <c r="J35" s="226">
         <v>64920</v>
       </c>
       <c r="K35" s="21" t="s">
         <v>2720</v>
       </c>
-      <c r="L35" s="238">
+      <c r="L35" s="236">
         <v>64515</v>
       </c>
       <c r="M35" s="8">
@@ -21703,11 +21679,11 @@
       <c r="C36" s="96" t="s">
         <v>2722</v>
       </c>
-      <c r="D36" s="220"/>
+      <c r="D36" s="227"/>
       <c r="E36" s="22" t="s">
         <v>2723</v>
       </c>
-      <c r="F36" s="220"/>
+      <c r="F36" s="227"/>
       <c r="G36" s="10"/>
       <c r="H36" s="167" t="s">
         <v>3247</v>
@@ -21715,11 +21691,11 @@
       <c r="I36" s="96" t="s">
         <v>2725</v>
       </c>
-      <c r="J36" s="220"/>
+      <c r="J36" s="227"/>
       <c r="K36" s="22" t="s">
         <v>2726</v>
       </c>
-      <c r="L36" s="231"/>
+      <c r="L36" s="222"/>
       <c r="M36" s="6">
         <v>3</v>
       </c>
@@ -21746,11 +21722,11 @@
       <c r="C37" s="96" t="s">
         <v>2728</v>
       </c>
-      <c r="D37" s="220"/>
+      <c r="D37" s="227"/>
       <c r="E37" s="22" t="s">
         <v>2729</v>
       </c>
-      <c r="F37" s="220"/>
+      <c r="F37" s="227"/>
       <c r="G37" s="10"/>
       <c r="H37" s="167" t="s">
         <v>3249</v>
@@ -21758,11 +21734,11 @@
       <c r="I37" s="96" t="s">
         <v>2731</v>
       </c>
-      <c r="J37" s="220"/>
+      <c r="J37" s="227"/>
       <c r="K37" s="22" t="s">
         <v>2732</v>
       </c>
-      <c r="L37" s="231"/>
+      <c r="L37" s="222"/>
       <c r="M37" s="6">
         <v>3</v>
       </c>
@@ -21789,11 +21765,11 @@
       <c r="C38" s="96" t="s">
         <v>2734</v>
       </c>
-      <c r="D38" s="220"/>
+      <c r="D38" s="227"/>
       <c r="E38" s="22" t="s">
         <v>2735</v>
       </c>
-      <c r="F38" s="220"/>
+      <c r="F38" s="227"/>
       <c r="G38" s="10"/>
       <c r="H38" s="167" t="s">
         <v>3251</v>
@@ -21801,11 +21777,11 @@
       <c r="I38" s="96" t="s">
         <v>2737</v>
       </c>
-      <c r="J38" s="220"/>
+      <c r="J38" s="227"/>
       <c r="K38" s="22" t="s">
         <v>2738</v>
       </c>
-      <c r="L38" s="231"/>
+      <c r="L38" s="222"/>
       <c r="M38" s="6">
         <v>3</v>
       </c>
@@ -21832,11 +21808,11 @@
       <c r="C39" s="23" t="s">
         <v>2740</v>
       </c>
-      <c r="D39" s="218"/>
+      <c r="D39" s="232"/>
       <c r="E39" s="24" t="s">
         <v>2741</v>
       </c>
-      <c r="F39" s="218"/>
+      <c r="F39" s="232"/>
       <c r="G39" s="10"/>
       <c r="H39" s="31" t="s">
         <v>3253</v>
@@ -21844,11 +21820,11 @@
       <c r="I39" s="23" t="s">
         <v>2743</v>
       </c>
-      <c r="J39" s="218"/>
+      <c r="J39" s="232"/>
       <c r="K39" s="24" t="s">
         <v>2744</v>
       </c>
-      <c r="L39" s="186"/>
+      <c r="L39" s="204"/>
       <c r="M39" s="7">
         <v>3</v>
       </c>
@@ -21903,28 +21879,28 @@
       <c r="N42" s="9"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="221" t="s">
+      <c r="A43" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="223" t="s">
+      <c r="B43" s="217" t="s">
         <v>2814</v>
       </c>
-      <c r="C43" s="191"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="211" t="s">
+      <c r="C43" s="196"/>
+      <c r="D43" s="196"/>
+      <c r="E43" s="209" t="s">
         <v>2815</v>
       </c>
-      <c r="F43" s="191"/>
-      <c r="G43" s="191"/>
-      <c r="H43" s="191"/>
-      <c r="I43" s="190"/>
+      <c r="F43" s="196"/>
+      <c r="G43" s="196"/>
+      <c r="H43" s="196"/>
+      <c r="I43" s="189"/>
       <c r="J43" s="10"/>
       <c r="L43" s="10"/>
       <c r="M43" s="11"/>
       <c r="N43" s="9"/>
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="222"/>
+      <c r="A44" s="216"/>
       <c r="B44" s="52" t="s">
         <v>368</v>
       </c>
@@ -21937,11 +21913,11 @@
       <c r="E44" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="F44" s="224" t="s">
+      <c r="F44" s="218" t="s">
         <v>370</v>
       </c>
-      <c r="G44" s="225"/>
-      <c r="H44" s="226"/>
+      <c r="G44" s="219"/>
+      <c r="H44" s="220"/>
       <c r="I44" s="64" t="s">
         <v>3229</v>
       </c>
@@ -21960,7 +21936,7 @@
       <c r="C45" s="19" t="s">
         <v>2833</v>
       </c>
-      <c r="D45" s="230">
+      <c r="D45" s="221">
         <v>64578</v>
       </c>
       <c r="E45" s="132" t="s">
@@ -21971,7 +21947,7 @@
       </c>
       <c r="G45" s="134"/>
       <c r="H45" s="150"/>
-      <c r="I45" s="227">
+      <c r="I45" s="223">
         <v>64579</v>
       </c>
       <c r="J45" s="10"/>
@@ -21989,7 +21965,7 @@
       <c r="C46" s="96" t="s">
         <v>2840</v>
       </c>
-      <c r="D46" s="231"/>
+      <c r="D46" s="222"/>
       <c r="E46" s="22" t="s">
         <v>2825</v>
       </c>
@@ -21998,7 +21974,7 @@
       </c>
       <c r="G46" s="96"/>
       <c r="H46" s="97"/>
-      <c r="I46" s="228"/>
+      <c r="I46" s="224"/>
       <c r="J46" s="10"/>
       <c r="L46" s="10"/>
       <c r="M46" s="11"/>
@@ -22014,7 +21990,7 @@
       <c r="C47" s="96" t="s">
         <v>2819</v>
       </c>
-      <c r="D47" s="231"/>
+      <c r="D47" s="222"/>
       <c r="E47" s="22" t="s">
         <v>2832</v>
       </c>
@@ -22023,7 +21999,7 @@
       </c>
       <c r="G47" s="154"/>
       <c r="H47" s="155"/>
-      <c r="I47" s="228"/>
+      <c r="I47" s="224"/>
       <c r="J47" s="10"/>
       <c r="L47" s="10"/>
       <c r="M47" s="11"/>
@@ -22039,7 +22015,7 @@
       <c r="C48" s="23" t="s">
         <v>2826</v>
       </c>
-      <c r="D48" s="186"/>
+      <c r="D48" s="204"/>
       <c r="E48" s="24" t="s">
         <v>2839</v>
       </c>
@@ -22048,7 +22024,7 @@
       </c>
       <c r="G48" s="143"/>
       <c r="H48" s="157"/>
-      <c r="I48" s="229"/>
+      <c r="I48" s="225"/>
       <c r="J48" s="10"/>
       <c r="L48" s="10"/>
       <c r="M48" s="11"/>
@@ -22069,28 +22045,28 @@
       <c r="N50" s="9"/>
     </row>
     <row r="51" spans="1:17" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="221" t="s">
+      <c r="A51" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="223" t="s">
+      <c r="B51" s="217" t="s">
         <v>3243</v>
       </c>
-      <c r="C51" s="191"/>
-      <c r="D51" s="191"/>
-      <c r="E51" s="211" t="s">
+      <c r="C51" s="196"/>
+      <c r="D51" s="196"/>
+      <c r="E51" s="209" t="s">
         <v>2816</v>
       </c>
-      <c r="F51" s="191"/>
-      <c r="G51" s="191"/>
-      <c r="H51" s="191"/>
-      <c r="I51" s="190"/>
+      <c r="F51" s="196"/>
+      <c r="G51" s="196"/>
+      <c r="H51" s="196"/>
+      <c r="I51" s="189"/>
       <c r="J51" s="10"/>
       <c r="L51" s="10"/>
       <c r="M51" s="11"/>
       <c r="N51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="222"/>
+      <c r="A52" s="216"/>
       <c r="B52" s="52" t="s">
         <v>368</v>
       </c>
@@ -22103,11 +22079,11 @@
       <c r="E52" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="F52" s="224" t="s">
+      <c r="F52" s="218" t="s">
         <v>370</v>
       </c>
-      <c r="G52" s="225"/>
-      <c r="H52" s="226"/>
+      <c r="G52" s="219"/>
+      <c r="H52" s="220"/>
       <c r="I52" s="64" t="s">
         <v>3229</v>
       </c>
@@ -22126,7 +22102,7 @@
       <c r="C53" s="19" t="s">
         <v>2836</v>
       </c>
-      <c r="D53" s="230">
+      <c r="D53" s="221">
         <v>64920</v>
       </c>
       <c r="E53" s="132" t="s">
@@ -22137,7 +22113,7 @@
       </c>
       <c r="G53" s="134"/>
       <c r="H53" s="150"/>
-      <c r="I53" s="227">
+      <c r="I53" s="223">
         <v>64921</v>
       </c>
       <c r="J53" s="10"/>
@@ -22155,7 +22131,7 @@
       <c r="C54" s="96" t="s">
         <v>2843</v>
       </c>
-      <c r="D54" s="231"/>
+      <c r="D54" s="222"/>
       <c r="E54" s="22" t="s">
         <v>2825</v>
       </c>
@@ -22164,7 +22140,7 @@
       </c>
       <c r="G54" s="96"/>
       <c r="H54" s="97"/>
-      <c r="I54" s="228"/>
+      <c r="I54" s="224"/>
       <c r="J54" s="10"/>
       <c r="L54" s="10"/>
       <c r="M54" s="11"/>
@@ -22180,7 +22156,7 @@
       <c r="C55" s="96" t="s">
         <v>2822</v>
       </c>
-      <c r="D55" s="231"/>
+      <c r="D55" s="222"/>
       <c r="E55" s="22" t="s">
         <v>2832</v>
       </c>
@@ -22189,7 +22165,7 @@
       </c>
       <c r="G55" s="154"/>
       <c r="H55" s="155"/>
-      <c r="I55" s="228"/>
+      <c r="I55" s="224"/>
       <c r="J55" s="10"/>
       <c r="L55" s="10"/>
       <c r="M55" s="11"/>
@@ -22205,7 +22181,7 @@
       <c r="C56" s="23" t="s">
         <v>2829</v>
       </c>
-      <c r="D56" s="186"/>
+      <c r="D56" s="204"/>
       <c r="E56" s="24" t="s">
         <v>2839</v>
       </c>
@@ -22214,7 +22190,7 @@
       </c>
       <c r="G56" s="143"/>
       <c r="H56" s="157"/>
-      <c r="I56" s="229"/>
+      <c r="I56" s="225"/>
       <c r="J56" s="10"/>
       <c r="L56" s="10"/>
       <c r="M56" s="11"/>
@@ -22232,36 +22208,36 @@
       </c>
     </row>
     <row r="60" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B60" s="211" t="s">
+      <c r="B60" s="209" t="s">
         <v>2911</v>
       </c>
-      <c r="C60" s="191"/>
-      <c r="D60" s="190"/>
-      <c r="E60" s="214" t="s">
+      <c r="C60" s="196"/>
+      <c r="D60" s="189"/>
+      <c r="E60" s="213" t="s">
         <v>2846</v>
       </c>
-      <c r="F60" s="192"/>
+      <c r="F60" s="197"/>
       <c r="G60" s="32"/>
-      <c r="H60" s="211" t="s">
+      <c r="H60" s="209" t="s">
         <v>2911</v>
       </c>
-      <c r="I60" s="191"/>
-      <c r="J60" s="190"/>
-      <c r="K60" s="214" t="s">
+      <c r="I60" s="196"/>
+      <c r="J60" s="189"/>
+      <c r="K60" s="213" t="s">
         <v>2847</v>
       </c>
-      <c r="L60" s="192"/>
-      <c r="M60" s="214" t="s">
+      <c r="L60" s="197"/>
+      <c r="M60" s="213" t="s">
         <v>3225</v>
       </c>
-      <c r="N60" s="192"/>
-      <c r="O60" s="215" t="s">
+      <c r="N60" s="197"/>
+      <c r="O60" s="229" t="s">
         <v>3226</v>
       </c>
-      <c r="P60" s="215" t="s">
+      <c r="P60" s="229" t="s">
         <v>3227</v>
       </c>
-      <c r="Q60" s="217" t="s">
+      <c r="Q60" s="230" t="s">
         <v>3228</v>
       </c>
     </row>
@@ -22308,7 +22284,7 @@
       </c>
       <c r="O61" s="180"/>
       <c r="P61" s="180"/>
-      <c r="Q61" s="239"/>
+      <c r="Q61" s="228"/>
     </row>
     <row r="62" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A62" s="132" t="s">
@@ -22320,13 +22296,13 @@
       <c r="C62" s="19" t="s">
         <v>2849</v>
       </c>
-      <c r="D62" s="219">
+      <c r="D62" s="226">
         <v>64584</v>
       </c>
       <c r="E62" s="21" t="s">
         <v>2850</v>
       </c>
-      <c r="F62" s="219">
+      <c r="F62" s="226">
         <v>64514</v>
       </c>
       <c r="G62" s="10"/>
@@ -22336,13 +22312,13 @@
       <c r="I62" s="19" t="s">
         <v>2852</v>
       </c>
-      <c r="J62" s="219">
+      <c r="J62" s="226">
         <v>64584</v>
       </c>
       <c r="K62" s="21" t="s">
         <v>2853</v>
       </c>
-      <c r="L62" s="219">
+      <c r="L62" s="226">
         <v>64514</v>
       </c>
       <c r="M62" s="8">
@@ -22371,11 +22347,11 @@
       <c r="C63" s="96" t="s">
         <v>2855</v>
       </c>
-      <c r="D63" s="220"/>
+      <c r="D63" s="227"/>
       <c r="E63" s="22" t="s">
         <v>2856</v>
       </c>
-      <c r="F63" s="220"/>
+      <c r="F63" s="227"/>
       <c r="G63" s="10"/>
       <c r="H63" s="132" t="s">
         <v>3236</v>
@@ -22383,11 +22359,11 @@
       <c r="I63" s="96" t="s">
         <v>2858</v>
       </c>
-      <c r="J63" s="220"/>
+      <c r="J63" s="227"/>
       <c r="K63" s="22" t="s">
         <v>2859</v>
       </c>
-      <c r="L63" s="220"/>
+      <c r="L63" s="227"/>
       <c r="M63" s="6">
         <v>3</v>
       </c>
@@ -22414,11 +22390,11 @@
       <c r="C64" s="96" t="s">
         <v>2861</v>
       </c>
-      <c r="D64" s="220"/>
+      <c r="D64" s="227"/>
       <c r="E64" s="22" t="s">
         <v>2862</v>
       </c>
-      <c r="F64" s="220"/>
+      <c r="F64" s="227"/>
       <c r="G64" s="10"/>
       <c r="H64" s="132" t="s">
         <v>3238</v>
@@ -22426,11 +22402,11 @@
       <c r="I64" s="96" t="s">
         <v>2864</v>
       </c>
-      <c r="J64" s="220"/>
+      <c r="J64" s="227"/>
       <c r="K64" s="22" t="s">
         <v>2865</v>
       </c>
-      <c r="L64" s="220"/>
+      <c r="L64" s="227"/>
       <c r="M64" s="6">
         <v>3</v>
       </c>
@@ -22457,11 +22433,11 @@
       <c r="C65" s="96" t="s">
         <v>2867</v>
       </c>
-      <c r="D65" s="220"/>
+      <c r="D65" s="227"/>
       <c r="E65" s="22" t="s">
         <v>2868</v>
       </c>
-      <c r="F65" s="220"/>
+      <c r="F65" s="227"/>
       <c r="G65" s="10"/>
       <c r="H65" s="132" t="s">
         <v>3240</v>
@@ -22469,11 +22445,11 @@
       <c r="I65" s="96" t="s">
         <v>2870</v>
       </c>
-      <c r="J65" s="220"/>
+      <c r="J65" s="227"/>
       <c r="K65" s="22" t="s">
         <v>2871</v>
       </c>
-      <c r="L65" s="220"/>
+      <c r="L65" s="227"/>
       <c r="M65" s="6">
         <v>3</v>
       </c>
@@ -22500,11 +22476,11 @@
       <c r="C66" s="23" t="s">
         <v>2873</v>
       </c>
-      <c r="D66" s="239"/>
+      <c r="D66" s="228"/>
       <c r="E66" s="24" t="s">
         <v>2874</v>
       </c>
-      <c r="F66" s="239"/>
+      <c r="F66" s="228"/>
       <c r="G66" s="10"/>
       <c r="H66" s="31" t="s">
         <v>3242</v>
@@ -22512,11 +22488,11 @@
       <c r="I66" s="23" t="s">
         <v>2876</v>
       </c>
-      <c r="J66" s="239"/>
+      <c r="J66" s="228"/>
       <c r="K66" s="24" t="s">
         <v>2877</v>
       </c>
-      <c r="L66" s="239"/>
+      <c r="L66" s="228"/>
       <c r="M66" s="7">
         <v>3</v>
       </c>
@@ -22550,36 +22526,36 @@
       </c>
     </row>
     <row r="69" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B69" s="211" t="s">
+      <c r="B69" s="209" t="s">
         <v>2912</v>
       </c>
-      <c r="C69" s="191"/>
-      <c r="D69" s="190"/>
-      <c r="E69" s="214" t="s">
+      <c r="C69" s="196"/>
+      <c r="D69" s="189"/>
+      <c r="E69" s="213" t="s">
         <v>2879</v>
       </c>
-      <c r="F69" s="192"/>
+      <c r="F69" s="197"/>
       <c r="G69" s="32"/>
-      <c r="H69" s="211" t="s">
+      <c r="H69" s="209" t="s">
         <v>2912</v>
       </c>
-      <c r="I69" s="191"/>
-      <c r="J69" s="190"/>
-      <c r="K69" s="214" t="s">
+      <c r="I69" s="196"/>
+      <c r="J69" s="189"/>
+      <c r="K69" s="213" t="s">
         <v>2880</v>
       </c>
-      <c r="L69" s="192"/>
-      <c r="M69" s="214" t="s">
+      <c r="L69" s="197"/>
+      <c r="M69" s="213" t="s">
         <v>3225</v>
       </c>
-      <c r="N69" s="192"/>
-      <c r="O69" s="215" t="s">
+      <c r="N69" s="197"/>
+      <c r="O69" s="229" t="s">
         <v>3226</v>
       </c>
-      <c r="P69" s="215" t="s">
+      <c r="P69" s="229" t="s">
         <v>3227</v>
       </c>
-      <c r="Q69" s="217" t="s">
+      <c r="Q69" s="230" t="s">
         <v>3228</v>
       </c>
     </row>
@@ -22626,7 +22602,7 @@
       </c>
       <c r="O70" s="180"/>
       <c r="P70" s="180"/>
-      <c r="Q70" s="239"/>
+      <c r="Q70" s="228"/>
     </row>
     <row r="71" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A71" s="132" t="s">
@@ -22638,13 +22614,13 @@
       <c r="C71" s="19" t="s">
         <v>2882</v>
       </c>
-      <c r="D71" s="219">
+      <c r="D71" s="226">
         <v>64585</v>
       </c>
       <c r="E71" s="21" t="s">
         <v>2883</v>
       </c>
-      <c r="F71" s="219">
+      <c r="F71" s="226">
         <v>64514</v>
       </c>
       <c r="G71" s="10"/>
@@ -22654,13 +22630,13 @@
       <c r="I71" s="19" t="s">
         <v>2885</v>
       </c>
-      <c r="J71" s="219">
+      <c r="J71" s="226">
         <v>64585</v>
       </c>
       <c r="K71" s="21" t="s">
         <v>2886</v>
       </c>
-      <c r="L71" s="219">
+      <c r="L71" s="226">
         <v>64514</v>
       </c>
       <c r="M71" s="8">
@@ -22689,11 +22665,11 @@
       <c r="C72" s="96" t="s">
         <v>2888</v>
       </c>
-      <c r="D72" s="220"/>
+      <c r="D72" s="227"/>
       <c r="E72" s="22" t="s">
         <v>2889</v>
       </c>
-      <c r="F72" s="220"/>
+      <c r="F72" s="227"/>
       <c r="G72" s="10"/>
       <c r="H72" s="132" t="s">
         <v>3236</v>
@@ -22701,11 +22677,11 @@
       <c r="I72" s="96" t="s">
         <v>2891</v>
       </c>
-      <c r="J72" s="220"/>
+      <c r="J72" s="227"/>
       <c r="K72" s="22" t="s">
         <v>2892</v>
       </c>
-      <c r="L72" s="220"/>
+      <c r="L72" s="227"/>
       <c r="M72" s="6">
         <v>3</v>
       </c>
@@ -22732,11 +22708,11 @@
       <c r="C73" s="96" t="s">
         <v>2894</v>
       </c>
-      <c r="D73" s="220"/>
+      <c r="D73" s="227"/>
       <c r="E73" s="22" t="s">
         <v>2895</v>
       </c>
-      <c r="F73" s="220"/>
+      <c r="F73" s="227"/>
       <c r="G73" s="10"/>
       <c r="H73" s="132" t="s">
         <v>3238</v>
@@ -22744,11 +22720,11 @@
       <c r="I73" s="96" t="s">
         <v>2897</v>
       </c>
-      <c r="J73" s="220"/>
+      <c r="J73" s="227"/>
       <c r="K73" s="22" t="s">
         <v>2898</v>
       </c>
-      <c r="L73" s="220"/>
+      <c r="L73" s="227"/>
       <c r="M73" s="6">
         <v>3</v>
       </c>
@@ -22775,11 +22751,11 @@
       <c r="C74" s="96" t="s">
         <v>2900</v>
       </c>
-      <c r="D74" s="220"/>
+      <c r="D74" s="227"/>
       <c r="E74" s="22" t="s">
         <v>2901</v>
       </c>
-      <c r="F74" s="220"/>
+      <c r="F74" s="227"/>
       <c r="G74" s="10"/>
       <c r="H74" s="132" t="s">
         <v>3240</v>
@@ -22787,11 +22763,11 @@
       <c r="I74" s="96" t="s">
         <v>2903</v>
       </c>
-      <c r="J74" s="220"/>
+      <c r="J74" s="227"/>
       <c r="K74" s="22" t="s">
         <v>2904</v>
       </c>
-      <c r="L74" s="220"/>
+      <c r="L74" s="227"/>
       <c r="M74" s="6">
         <v>3</v>
       </c>
@@ -22818,11 +22794,11 @@
       <c r="C75" s="23" t="s">
         <v>2906</v>
       </c>
-      <c r="D75" s="239"/>
+      <c r="D75" s="228"/>
       <c r="E75" s="24" t="s">
         <v>2907</v>
       </c>
-      <c r="F75" s="239"/>
+      <c r="F75" s="228"/>
       <c r="G75" s="10"/>
       <c r="H75" s="31" t="s">
         <v>3242</v>
@@ -22830,11 +22806,11 @@
       <c r="I75" s="23" t="s">
         <v>2909</v>
       </c>
-      <c r="J75" s="239"/>
+      <c r="J75" s="228"/>
       <c r="K75" s="24" t="s">
         <v>2910</v>
       </c>
-      <c r="L75" s="239"/>
+      <c r="L75" s="228"/>
       <c r="M75" s="7">
         <v>3</v>
       </c>
@@ -22866,28 +22842,28 @@
       <c r="N77" s="9"/>
     </row>
     <row r="78" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A78" s="221" t="s">
+      <c r="A78" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="223" t="s">
+      <c r="B78" s="217" t="s">
         <v>2911</v>
       </c>
-      <c r="C78" s="191"/>
-      <c r="D78" s="191"/>
-      <c r="E78" s="211" t="s">
+      <c r="C78" s="196"/>
+      <c r="D78" s="196"/>
+      <c r="E78" s="209" t="s">
         <v>2912</v>
       </c>
-      <c r="F78" s="191"/>
-      <c r="G78" s="191"/>
-      <c r="H78" s="191"/>
-      <c r="I78" s="190"/>
+      <c r="F78" s="196"/>
+      <c r="G78" s="196"/>
+      <c r="H78" s="196"/>
+      <c r="I78" s="189"/>
       <c r="J78" s="10"/>
       <c r="L78" s="10"/>
       <c r="M78" s="11"/>
       <c r="N78" s="9"/>
     </row>
     <row r="79" spans="1:17" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="222"/>
+      <c r="A79" s="216"/>
       <c r="B79" s="52" t="s">
         <v>368</v>
       </c>
@@ -22900,11 +22876,11 @@
       <c r="E79" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="F79" s="224" t="s">
+      <c r="F79" s="218" t="s">
         <v>370</v>
       </c>
-      <c r="G79" s="225"/>
-      <c r="H79" s="226"/>
+      <c r="G79" s="219"/>
+      <c r="H79" s="220"/>
       <c r="I79" s="64" t="s">
         <v>3229</v>
       </c>
@@ -22923,7 +22899,7 @@
       <c r="C80" s="19" t="s">
         <v>2914</v>
       </c>
-      <c r="D80" s="230">
+      <c r="D80" s="221">
         <v>64584</v>
       </c>
       <c r="E80" s="132" t="s">
@@ -22934,7 +22910,7 @@
       </c>
       <c r="G80" s="134"/>
       <c r="H80" s="150"/>
-      <c r="I80" s="227">
+      <c r="I80" s="223">
         <v>64585</v>
       </c>
       <c r="J80" s="10"/>
@@ -22952,7 +22928,7 @@
       <c r="C81" s="96" t="s">
         <v>2917</v>
       </c>
-      <c r="D81" s="231"/>
+      <c r="D81" s="222"/>
       <c r="E81" s="22" t="s">
         <v>2825</v>
       </c>
@@ -22961,7 +22937,7 @@
       </c>
       <c r="G81" s="96"/>
       <c r="H81" s="97"/>
-      <c r="I81" s="228"/>
+      <c r="I81" s="224"/>
       <c r="J81" s="10"/>
       <c r="L81" s="10"/>
       <c r="M81" s="11"/>
@@ -22977,7 +22953,7 @@
       <c r="C82" s="96" t="s">
         <v>2919</v>
       </c>
-      <c r="D82" s="231"/>
+      <c r="D82" s="222"/>
       <c r="E82" s="22" t="s">
         <v>2832</v>
       </c>
@@ -22986,7 +22962,7 @@
       </c>
       <c r="G82" s="154"/>
       <c r="H82" s="155"/>
-      <c r="I82" s="228"/>
+      <c r="I82" s="224"/>
       <c r="J82" s="10"/>
       <c r="L82" s="10"/>
       <c r="M82" s="11"/>
@@ -23002,7 +22978,7 @@
       <c r="C83" s="23" t="s">
         <v>2922</v>
       </c>
-      <c r="D83" s="186"/>
+      <c r="D83" s="204"/>
       <c r="E83" s="24" t="s">
         <v>2839</v>
       </c>
@@ -23011,7 +22987,7 @@
       </c>
       <c r="G83" s="143"/>
       <c r="H83" s="157"/>
-      <c r="I83" s="229"/>
+      <c r="I83" s="225"/>
       <c r="J83" s="10"/>
       <c r="L83" s="10"/>
       <c r="M83" s="11"/>
@@ -23029,44 +23005,44 @@
       </c>
     </row>
     <row r="87" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A87" s="221" t="s">
+      <c r="A87" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="B87" s="223" t="s">
+      <c r="B87" s="217" t="s">
         <v>2989</v>
       </c>
-      <c r="C87" s="191"/>
-      <c r="D87" s="191"/>
-      <c r="E87" s="214" t="s">
+      <c r="C87" s="196"/>
+      <c r="D87" s="196"/>
+      <c r="E87" s="213" t="s">
         <v>2924</v>
       </c>
-      <c r="F87" s="192"/>
+      <c r="F87" s="197"/>
       <c r="G87" s="32"/>
-      <c r="H87" s="211" t="s">
+      <c r="H87" s="209" t="s">
         <v>2989</v>
       </c>
-      <c r="I87" s="191"/>
-      <c r="J87" s="190"/>
-      <c r="K87" s="214" t="s">
+      <c r="I87" s="196"/>
+      <c r="J87" s="189"/>
+      <c r="K87" s="213" t="s">
         <v>2925</v>
       </c>
-      <c r="L87" s="192"/>
-      <c r="M87" s="214" t="s">
+      <c r="L87" s="197"/>
+      <c r="M87" s="213" t="s">
         <v>3225</v>
       </c>
-      <c r="N87" s="192"/>
-      <c r="O87" s="215" t="s">
+      <c r="N87" s="197"/>
+      <c r="O87" s="229" t="s">
         <v>3226</v>
       </c>
-      <c r="P87" s="215" t="s">
+      <c r="P87" s="229" t="s">
         <v>3227</v>
       </c>
-      <c r="Q87" s="217" t="s">
+      <c r="Q87" s="230" t="s">
         <v>3228</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="222"/>
+      <c r="A88" s="216"/>
       <c r="B88" s="4" t="s">
         <v>368</v>
       </c>
@@ -23106,7 +23082,7 @@
       </c>
       <c r="O88" s="180"/>
       <c r="P88" s="180"/>
-      <c r="Q88" s="239"/>
+      <c r="Q88" s="228"/>
     </row>
     <row r="89" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A89" s="62" t="s">
@@ -23118,13 +23094,13 @@
       <c r="C89" s="134" t="s">
         <v>2927</v>
       </c>
-      <c r="D89" s="230">
+      <c r="D89" s="221">
         <v>64560</v>
       </c>
       <c r="E89" s="132" t="s">
         <v>2928</v>
       </c>
-      <c r="F89" s="219">
+      <c r="F89" s="226">
         <v>64516</v>
       </c>
       <c r="G89" s="10"/>
@@ -23134,13 +23110,13 @@
       <c r="I89" s="19" t="s">
         <v>2930</v>
       </c>
-      <c r="J89" s="240">
+      <c r="J89" s="233">
         <v>64560</v>
       </c>
       <c r="K89" s="21" t="s">
         <v>2931</v>
       </c>
-      <c r="L89" s="240">
+      <c r="L89" s="233">
         <v>64516</v>
       </c>
       <c r="M89" s="8">
@@ -23169,11 +23145,11 @@
       <c r="C90" s="96" t="s">
         <v>2933</v>
       </c>
-      <c r="D90" s="231"/>
+      <c r="D90" s="222"/>
       <c r="E90" s="22" t="s">
         <v>2934</v>
       </c>
-      <c r="F90" s="220"/>
+      <c r="F90" s="227"/>
       <c r="G90" s="10"/>
       <c r="H90" s="132" t="s">
         <v>3236</v>
@@ -23181,11 +23157,11 @@
       <c r="I90" s="96" t="s">
         <v>2936</v>
       </c>
-      <c r="J90" s="220"/>
+      <c r="J90" s="227"/>
       <c r="K90" s="22" t="s">
         <v>2937</v>
       </c>
-      <c r="L90" s="220"/>
+      <c r="L90" s="227"/>
       <c r="M90" s="6">
         <v>3</v>
       </c>
@@ -23212,11 +23188,11 @@
       <c r="C91" s="96" t="s">
         <v>2939</v>
       </c>
-      <c r="D91" s="231"/>
+      <c r="D91" s="222"/>
       <c r="E91" s="22" t="s">
         <v>2940</v>
       </c>
-      <c r="F91" s="220"/>
+      <c r="F91" s="227"/>
       <c r="G91" s="10"/>
       <c r="H91" s="132" t="s">
         <v>3238</v>
@@ -23224,11 +23200,11 @@
       <c r="I91" s="96" t="s">
         <v>2942</v>
       </c>
-      <c r="J91" s="220"/>
+      <c r="J91" s="227"/>
       <c r="K91" s="22" t="s">
         <v>2943</v>
       </c>
-      <c r="L91" s="220"/>
+      <c r="L91" s="227"/>
       <c r="M91" s="6">
         <v>3</v>
       </c>
@@ -23255,11 +23231,11 @@
       <c r="C92" s="96" t="s">
         <v>2945</v>
       </c>
-      <c r="D92" s="231"/>
+      <c r="D92" s="222"/>
       <c r="E92" s="22" t="s">
         <v>2946</v>
       </c>
-      <c r="F92" s="220"/>
+      <c r="F92" s="227"/>
       <c r="G92" s="10"/>
       <c r="H92" s="132" t="s">
         <v>3240</v>
@@ -23267,11 +23243,11 @@
       <c r="I92" s="96" t="s">
         <v>2948</v>
       </c>
-      <c r="J92" s="220"/>
+      <c r="J92" s="227"/>
       <c r="K92" s="22" t="s">
         <v>2949</v>
       </c>
-      <c r="L92" s="220"/>
+      <c r="L92" s="227"/>
       <c r="M92" s="6">
         <v>3</v>
       </c>
@@ -23298,11 +23274,11 @@
       <c r="C93" s="23" t="s">
         <v>2951</v>
       </c>
-      <c r="D93" s="186"/>
+      <c r="D93" s="204"/>
       <c r="E93" s="24" t="s">
         <v>2952</v>
       </c>
-      <c r="F93" s="239"/>
+      <c r="F93" s="228"/>
       <c r="G93" s="10"/>
       <c r="H93" s="31" t="s">
         <v>3242</v>
@@ -23310,11 +23286,11 @@
       <c r="I93" s="23" t="s">
         <v>2954</v>
       </c>
-      <c r="J93" s="218"/>
+      <c r="J93" s="232"/>
       <c r="K93" s="24" t="s">
         <v>2955</v>
       </c>
-      <c r="L93" s="218"/>
+      <c r="L93" s="232"/>
       <c r="M93" s="7">
         <v>3</v>
       </c>
@@ -23348,44 +23324,44 @@
       </c>
     </row>
     <row r="96" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A96" s="221" t="s">
+      <c r="A96" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="B96" s="211" t="s">
+      <c r="B96" s="209" t="s">
         <v>2990</v>
       </c>
-      <c r="C96" s="191"/>
-      <c r="D96" s="190"/>
-      <c r="E96" s="242" t="s">
+      <c r="C96" s="196"/>
+      <c r="D96" s="189"/>
+      <c r="E96" s="235" t="s">
         <v>2957</v>
       </c>
-      <c r="F96" s="192"/>
+      <c r="F96" s="197"/>
       <c r="G96" s="32"/>
-      <c r="H96" s="211" t="s">
+      <c r="H96" s="209" t="s">
         <v>2990</v>
       </c>
-      <c r="I96" s="191"/>
-      <c r="J96" s="190"/>
-      <c r="K96" s="214" t="s">
+      <c r="I96" s="196"/>
+      <c r="J96" s="189"/>
+      <c r="K96" s="213" t="s">
         <v>2958</v>
       </c>
-      <c r="L96" s="192"/>
-      <c r="M96" s="214" t="s">
+      <c r="L96" s="197"/>
+      <c r="M96" s="213" t="s">
         <v>3225</v>
       </c>
-      <c r="N96" s="192"/>
-      <c r="O96" s="215" t="s">
+      <c r="N96" s="197"/>
+      <c r="O96" s="229" t="s">
         <v>3226</v>
       </c>
-      <c r="P96" s="215" t="s">
+      <c r="P96" s="229" t="s">
         <v>3227</v>
       </c>
-      <c r="Q96" s="217" t="s">
+      <c r="Q96" s="230" t="s">
         <v>3228</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="222"/>
+      <c r="A97" s="216"/>
       <c r="B97" s="52" t="s">
         <v>368</v>
       </c>
@@ -23425,7 +23401,7 @@
       </c>
       <c r="O97" s="180"/>
       <c r="P97" s="180"/>
-      <c r="Q97" s="239"/>
+      <c r="Q97" s="228"/>
     </row>
     <row r="98" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A98" s="55" t="s">
@@ -23437,13 +23413,13 @@
       <c r="C98" s="19" t="s">
         <v>2960</v>
       </c>
-      <c r="D98" s="240">
+      <c r="D98" s="233">
         <v>64561</v>
       </c>
       <c r="E98" s="137" t="s">
         <v>2961</v>
       </c>
-      <c r="F98" s="240">
+      <c r="F98" s="233">
         <v>64516</v>
       </c>
       <c r="G98" s="10"/>
@@ -23453,13 +23429,13 @@
       <c r="I98" s="19" t="s">
         <v>2963</v>
       </c>
-      <c r="J98" s="241">
+      <c r="J98" s="234">
         <v>64561</v>
       </c>
       <c r="K98" s="55" t="s">
         <v>2964</v>
       </c>
-      <c r="L98" s="227">
+      <c r="L98" s="223">
         <v>64516</v>
       </c>
       <c r="M98" s="8">
@@ -23488,11 +23464,11 @@
       <c r="C99" s="96" t="s">
         <v>2966</v>
       </c>
-      <c r="D99" s="220"/>
+      <c r="D99" s="227"/>
       <c r="E99" s="54" t="s">
         <v>2967</v>
       </c>
-      <c r="F99" s="220"/>
+      <c r="F99" s="227"/>
       <c r="G99" s="10"/>
       <c r="H99" s="22" t="s">
         <v>3236</v>
@@ -23500,11 +23476,11 @@
       <c r="I99" s="96" t="s">
         <v>2969</v>
       </c>
-      <c r="J99" s="231"/>
+      <c r="J99" s="222"/>
       <c r="K99" s="56" t="s">
         <v>2970</v>
       </c>
-      <c r="L99" s="228"/>
+      <c r="L99" s="224"/>
       <c r="M99" s="6">
         <v>3</v>
       </c>
@@ -23531,11 +23507,11 @@
       <c r="C100" s="96" t="s">
         <v>2972</v>
       </c>
-      <c r="D100" s="220"/>
+      <c r="D100" s="227"/>
       <c r="E100" s="54" t="s">
         <v>2973</v>
       </c>
-      <c r="F100" s="220"/>
+      <c r="F100" s="227"/>
       <c r="G100" s="10"/>
       <c r="H100" s="22" t="s">
         <v>3238</v>
@@ -23543,11 +23519,11 @@
       <c r="I100" s="96" t="s">
         <v>2975</v>
       </c>
-      <c r="J100" s="231"/>
+      <c r="J100" s="222"/>
       <c r="K100" s="56" t="s">
         <v>2976</v>
       </c>
-      <c r="L100" s="228"/>
+      <c r="L100" s="224"/>
       <c r="M100" s="6">
         <v>3</v>
       </c>
@@ -23574,11 +23550,11 @@
       <c r="C101" s="96" t="s">
         <v>2978</v>
       </c>
-      <c r="D101" s="220"/>
+      <c r="D101" s="227"/>
       <c r="E101" s="54" t="s">
         <v>2979</v>
       </c>
-      <c r="F101" s="220"/>
+      <c r="F101" s="227"/>
       <c r="G101" s="10"/>
       <c r="H101" s="22" t="s">
         <v>3240</v>
@@ -23586,11 +23562,11 @@
       <c r="I101" s="96" t="s">
         <v>2981</v>
       </c>
-      <c r="J101" s="231"/>
+      <c r="J101" s="222"/>
       <c r="K101" s="56" t="s">
         <v>2982</v>
       </c>
-      <c r="L101" s="228"/>
+      <c r="L101" s="224"/>
       <c r="M101" s="6">
         <v>3</v>
       </c>
@@ -23617,11 +23593,11 @@
       <c r="C102" s="23" t="s">
         <v>2984</v>
       </c>
-      <c r="D102" s="218"/>
+      <c r="D102" s="232"/>
       <c r="E102" s="144" t="s">
         <v>2985</v>
       </c>
-      <c r="F102" s="218"/>
+      <c r="F102" s="232"/>
       <c r="G102" s="10"/>
       <c r="H102" s="24" t="s">
         <v>3242</v>
@@ -23629,11 +23605,11 @@
       <c r="I102" s="23" t="s">
         <v>2987</v>
       </c>
-      <c r="J102" s="195"/>
+      <c r="J102" s="185"/>
       <c r="K102" s="57" t="s">
         <v>2988</v>
       </c>
-      <c r="L102" s="229"/>
+      <c r="L102" s="225"/>
       <c r="M102" s="7">
         <v>3</v>
       </c>
@@ -23674,28 +23650,28 @@
       <c r="N104" s="9"/>
     </row>
     <row r="105" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A105" s="221" t="s">
+      <c r="A105" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="B105" s="223" t="s">
+      <c r="B105" s="217" t="s">
         <v>2989</v>
       </c>
-      <c r="C105" s="191"/>
-      <c r="D105" s="191"/>
-      <c r="E105" s="211" t="s">
+      <c r="C105" s="196"/>
+      <c r="D105" s="196"/>
+      <c r="E105" s="209" t="s">
         <v>2990</v>
       </c>
-      <c r="F105" s="191"/>
-      <c r="G105" s="191"/>
-      <c r="H105" s="191"/>
-      <c r="I105" s="190"/>
+      <c r="F105" s="196"/>
+      <c r="G105" s="196"/>
+      <c r="H105" s="196"/>
+      <c r="I105" s="189"/>
       <c r="J105" s="10"/>
       <c r="L105" s="10"/>
       <c r="M105" s="11"/>
       <c r="N105" s="9"/>
     </row>
     <row r="106" spans="1:17" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="222"/>
+      <c r="A106" s="216"/>
       <c r="B106" s="52" t="s">
         <v>368</v>
       </c>
@@ -23708,11 +23684,11 @@
       <c r="E106" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="F106" s="224" t="s">
+      <c r="F106" s="218" t="s">
         <v>370</v>
       </c>
-      <c r="G106" s="225"/>
-      <c r="H106" s="226"/>
+      <c r="G106" s="219"/>
+      <c r="H106" s="220"/>
       <c r="I106" s="64" t="s">
         <v>3229</v>
       </c>
@@ -23731,7 +23707,7 @@
       <c r="C107" s="19" t="s">
         <v>2992</v>
       </c>
-      <c r="D107" s="230">
+      <c r="D107" s="221">
         <v>64560</v>
       </c>
       <c r="E107" s="132" t="s">
@@ -23742,7 +23718,7 @@
       </c>
       <c r="G107" s="134"/>
       <c r="H107" s="150"/>
-      <c r="I107" s="227">
+      <c r="I107" s="223">
         <v>64561</v>
       </c>
       <c r="J107" s="10"/>
@@ -23760,7 +23736,7 @@
       <c r="C108" s="96" t="s">
         <v>2995</v>
       </c>
-      <c r="D108" s="231"/>
+      <c r="D108" s="222"/>
       <c r="E108" s="22" t="s">
         <v>2825</v>
       </c>
@@ -23769,7 +23745,7 @@
       </c>
       <c r="G108" s="96"/>
       <c r="H108" s="97"/>
-      <c r="I108" s="228"/>
+      <c r="I108" s="224"/>
       <c r="J108" s="10"/>
       <c r="L108" s="10"/>
       <c r="M108" s="11"/>
@@ -23785,7 +23761,7 @@
       <c r="C109" s="96" t="s">
         <v>2998</v>
       </c>
-      <c r="D109" s="231"/>
+      <c r="D109" s="222"/>
       <c r="E109" s="22" t="s">
         <v>2832</v>
       </c>
@@ -23794,7 +23770,7 @@
       </c>
       <c r="G109" s="154"/>
       <c r="H109" s="155"/>
-      <c r="I109" s="228"/>
+      <c r="I109" s="224"/>
       <c r="J109" s="10"/>
       <c r="L109" s="10"/>
       <c r="M109" s="11"/>
@@ -23810,7 +23786,7 @@
       <c r="C110" s="23" t="s">
         <v>3001</v>
       </c>
-      <c r="D110" s="186"/>
+      <c r="D110" s="204"/>
       <c r="E110" s="24" t="s">
         <v>2839</v>
       </c>
@@ -23819,7 +23795,7 @@
       </c>
       <c r="G110" s="143"/>
       <c r="H110" s="157"/>
-      <c r="I110" s="229"/>
+      <c r="I110" s="225"/>
       <c r="J110" s="10"/>
       <c r="L110" s="10"/>
       <c r="M110" s="11"/>
@@ -23847,36 +23823,36 @@
       </c>
     </row>
     <row r="115" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B115" s="211" t="s">
+      <c r="B115" s="209" t="s">
         <v>3069</v>
       </c>
-      <c r="C115" s="191"/>
-      <c r="D115" s="190"/>
-      <c r="E115" s="214" t="s">
+      <c r="C115" s="196"/>
+      <c r="D115" s="189"/>
+      <c r="E115" s="213" t="s">
         <v>3004</v>
       </c>
-      <c r="F115" s="192"/>
+      <c r="F115" s="197"/>
       <c r="G115" s="32"/>
-      <c r="H115" s="211" t="s">
+      <c r="H115" s="209" t="s">
         <v>3069</v>
       </c>
-      <c r="I115" s="191"/>
-      <c r="J115" s="190"/>
-      <c r="K115" s="214" t="s">
+      <c r="I115" s="196"/>
+      <c r="J115" s="189"/>
+      <c r="K115" s="213" t="s">
         <v>3005</v>
       </c>
-      <c r="L115" s="192"/>
-      <c r="M115" s="214" t="s">
+      <c r="L115" s="197"/>
+      <c r="M115" s="213" t="s">
         <v>3225</v>
       </c>
-      <c r="N115" s="192"/>
-      <c r="O115" s="215" t="s">
+      <c r="N115" s="197"/>
+      <c r="O115" s="229" t="s">
         <v>3226</v>
       </c>
-      <c r="P115" s="215" t="s">
+      <c r="P115" s="229" t="s">
         <v>3227</v>
       </c>
-      <c r="Q115" s="217" t="s">
+      <c r="Q115" s="230" t="s">
         <v>3228</v>
       </c>
     </row>
@@ -23923,7 +23899,7 @@
       </c>
       <c r="O116" s="180"/>
       <c r="P116" s="180"/>
-      <c r="Q116" s="239"/>
+      <c r="Q116" s="228"/>
     </row>
     <row r="117" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A117" s="132" t="s">
@@ -23935,13 +23911,13 @@
       <c r="C117" s="19" t="s">
         <v>3007</v>
       </c>
-      <c r="D117" s="219">
+      <c r="D117" s="226">
         <v>64582</v>
       </c>
       <c r="E117" s="21" t="s">
         <v>3008</v>
       </c>
-      <c r="F117" s="219">
+      <c r="F117" s="226">
         <v>64517</v>
       </c>
       <c r="G117" s="10"/>
@@ -23951,13 +23927,13 @@
       <c r="I117" s="19" t="s">
         <v>3010</v>
       </c>
-      <c r="J117" s="219">
+      <c r="J117" s="226">
         <v>64582</v>
       </c>
       <c r="K117" s="21" t="s">
         <v>3011</v>
       </c>
-      <c r="L117" s="219">
+      <c r="L117" s="226">
         <v>64517</v>
       </c>
       <c r="M117" s="8">
@@ -23986,11 +23962,11 @@
       <c r="C118" s="96" t="s">
         <v>3013</v>
       </c>
-      <c r="D118" s="220"/>
+      <c r="D118" s="227"/>
       <c r="E118" s="22" t="s">
         <v>3014</v>
       </c>
-      <c r="F118" s="220"/>
+      <c r="F118" s="227"/>
       <c r="G118" s="10"/>
       <c r="H118" s="132" t="s">
         <v>3259</v>
@@ -23998,11 +23974,11 @@
       <c r="I118" s="96" t="s">
         <v>3016</v>
       </c>
-      <c r="J118" s="220"/>
+      <c r="J118" s="227"/>
       <c r="K118" s="22" t="s">
         <v>3017</v>
       </c>
-      <c r="L118" s="220"/>
+      <c r="L118" s="227"/>
       <c r="M118" s="6">
         <v>3</v>
       </c>
@@ -24029,11 +24005,11 @@
       <c r="C119" s="96" t="s">
         <v>3019</v>
       </c>
-      <c r="D119" s="220"/>
+      <c r="D119" s="227"/>
       <c r="E119" s="22" t="s">
         <v>3020</v>
       </c>
-      <c r="F119" s="220"/>
+      <c r="F119" s="227"/>
       <c r="G119" s="10"/>
       <c r="H119" s="132" t="s">
         <v>3260</v>
@@ -24041,11 +24017,11 @@
       <c r="I119" s="96" t="s">
         <v>3022</v>
       </c>
-      <c r="J119" s="220"/>
+      <c r="J119" s="227"/>
       <c r="K119" s="22" t="s">
         <v>3023</v>
       </c>
-      <c r="L119" s="220"/>
+      <c r="L119" s="227"/>
       <c r="M119" s="6">
         <v>3</v>
       </c>
@@ -24072,11 +24048,11 @@
       <c r="C120" s="96" t="s">
         <v>3025</v>
       </c>
-      <c r="D120" s="220"/>
+      <c r="D120" s="227"/>
       <c r="E120" s="22" t="s">
         <v>3026</v>
       </c>
-      <c r="F120" s="220"/>
+      <c r="F120" s="227"/>
       <c r="G120" s="10"/>
       <c r="H120" s="132" t="s">
         <v>3261</v>
@@ -24084,11 +24060,11 @@
       <c r="I120" s="96" t="s">
         <v>3028</v>
       </c>
-      <c r="J120" s="220"/>
+      <c r="J120" s="227"/>
       <c r="K120" s="22" t="s">
         <v>3029</v>
       </c>
-      <c r="L120" s="220"/>
+      <c r="L120" s="227"/>
       <c r="M120" s="6">
         <v>3</v>
       </c>
@@ -24115,11 +24091,11 @@
       <c r="C121" s="23" t="s">
         <v>3031</v>
       </c>
-      <c r="D121" s="239"/>
+      <c r="D121" s="228"/>
       <c r="E121" s="24" t="s">
         <v>3032</v>
       </c>
-      <c r="F121" s="239"/>
+      <c r="F121" s="228"/>
       <c r="G121" s="10"/>
       <c r="H121" s="31" t="s">
         <v>3262</v>
@@ -24127,11 +24103,11 @@
       <c r="I121" s="23" t="s">
         <v>3034</v>
       </c>
-      <c r="J121" s="239"/>
+      <c r="J121" s="228"/>
       <c r="K121" s="24" t="s">
         <v>3035</v>
       </c>
-      <c r="L121" s="239"/>
+      <c r="L121" s="228"/>
       <c r="M121" s="7">
         <v>3</v>
       </c>
@@ -24165,36 +24141,36 @@
       </c>
     </row>
     <row r="124" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B124" s="211" t="s">
+      <c r="B124" s="209" t="s">
         <v>3070</v>
       </c>
-      <c r="C124" s="191"/>
-      <c r="D124" s="190"/>
-      <c r="E124" s="214" t="s">
+      <c r="C124" s="196"/>
+      <c r="D124" s="189"/>
+      <c r="E124" s="213" t="s">
         <v>3037</v>
       </c>
-      <c r="F124" s="192"/>
+      <c r="F124" s="197"/>
       <c r="G124" s="32"/>
-      <c r="H124" s="211" t="s">
+      <c r="H124" s="209" t="s">
         <v>3070</v>
       </c>
-      <c r="I124" s="191"/>
-      <c r="J124" s="190"/>
-      <c r="K124" s="214" t="s">
+      <c r="I124" s="196"/>
+      <c r="J124" s="189"/>
+      <c r="K124" s="213" t="s">
         <v>3038</v>
       </c>
-      <c r="L124" s="192"/>
-      <c r="M124" s="214" t="s">
+      <c r="L124" s="197"/>
+      <c r="M124" s="213" t="s">
         <v>3225</v>
       </c>
-      <c r="N124" s="192"/>
-      <c r="O124" s="215" t="s">
+      <c r="N124" s="197"/>
+      <c r="O124" s="229" t="s">
         <v>3226</v>
       </c>
-      <c r="P124" s="215" t="s">
+      <c r="P124" s="229" t="s">
         <v>3227</v>
       </c>
-      <c r="Q124" s="217" t="s">
+      <c r="Q124" s="230" t="s">
         <v>3228</v>
       </c>
     </row>
@@ -24241,7 +24217,7 @@
       </c>
       <c r="O125" s="180"/>
       <c r="P125" s="180"/>
-      <c r="Q125" s="239"/>
+      <c r="Q125" s="228"/>
     </row>
     <row r="126" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A126" s="132" t="s">
@@ -24253,13 +24229,13 @@
       <c r="C126" s="19" t="s">
         <v>3040</v>
       </c>
-      <c r="D126" s="219">
+      <c r="D126" s="226">
         <v>64583</v>
       </c>
       <c r="E126" s="21" t="s">
         <v>3041</v>
       </c>
-      <c r="F126" s="219">
+      <c r="F126" s="226">
         <v>64517</v>
       </c>
       <c r="G126" s="10"/>
@@ -24269,13 +24245,13 @@
       <c r="I126" s="19" t="s">
         <v>3043</v>
       </c>
-      <c r="J126" s="219">
+      <c r="J126" s="226">
         <v>64583</v>
       </c>
       <c r="K126" s="21" t="s">
         <v>3044</v>
       </c>
-      <c r="L126" s="219">
+      <c r="L126" s="226">
         <v>64517</v>
       </c>
       <c r="M126" s="8">
@@ -24304,11 +24280,11 @@
       <c r="C127" s="96" t="s">
         <v>3046</v>
       </c>
-      <c r="D127" s="220"/>
+      <c r="D127" s="227"/>
       <c r="E127" s="22" t="s">
         <v>3047</v>
       </c>
-      <c r="F127" s="220"/>
+      <c r="F127" s="227"/>
       <c r="G127" s="10"/>
       <c r="H127" s="132" t="s">
         <v>3259</v>
@@ -24316,11 +24292,11 @@
       <c r="I127" s="96" t="s">
         <v>3049</v>
       </c>
-      <c r="J127" s="220"/>
+      <c r="J127" s="227"/>
       <c r="K127" s="22" t="s">
         <v>3050</v>
       </c>
-      <c r="L127" s="220"/>
+      <c r="L127" s="227"/>
       <c r="M127" s="6">
         <v>3</v>
       </c>
@@ -24347,11 +24323,11 @@
       <c r="C128" s="96" t="s">
         <v>3052</v>
       </c>
-      <c r="D128" s="220"/>
+      <c r="D128" s="227"/>
       <c r="E128" s="22" t="s">
         <v>3053</v>
       </c>
-      <c r="F128" s="220"/>
+      <c r="F128" s="227"/>
       <c r="G128" s="10"/>
       <c r="H128" s="132" t="s">
         <v>3260</v>
@@ -24359,11 +24335,11 @@
       <c r="I128" s="96" t="s">
         <v>3055</v>
       </c>
-      <c r="J128" s="220"/>
+      <c r="J128" s="227"/>
       <c r="K128" s="22" t="s">
         <v>3056</v>
       </c>
-      <c r="L128" s="220"/>
+      <c r="L128" s="227"/>
       <c r="M128" s="6">
         <v>3</v>
       </c>
@@ -24390,11 +24366,11 @@
       <c r="C129" s="96" t="s">
         <v>3058</v>
       </c>
-      <c r="D129" s="220"/>
+      <c r="D129" s="227"/>
       <c r="E129" s="22" t="s">
         <v>3059</v>
       </c>
-      <c r="F129" s="220"/>
+      <c r="F129" s="227"/>
       <c r="G129" s="10"/>
       <c r="H129" s="132" t="s">
         <v>3261</v>
@@ -24402,11 +24378,11 @@
       <c r="I129" s="96" t="s">
         <v>3061</v>
       </c>
-      <c r="J129" s="220"/>
+      <c r="J129" s="227"/>
       <c r="K129" s="22" t="s">
         <v>3062</v>
       </c>
-      <c r="L129" s="220"/>
+      <c r="L129" s="227"/>
       <c r="M129" s="6">
         <v>3</v>
       </c>
@@ -24433,11 +24409,11 @@
       <c r="C130" s="23" t="s">
         <v>3064</v>
       </c>
-      <c r="D130" s="239"/>
+      <c r="D130" s="228"/>
       <c r="E130" s="24" t="s">
         <v>3065</v>
       </c>
-      <c r="F130" s="239"/>
+      <c r="F130" s="228"/>
       <c r="G130" s="10"/>
       <c r="H130" s="31" t="s">
         <v>3262</v>
@@ -24445,11 +24421,11 @@
       <c r="I130" s="23" t="s">
         <v>3067</v>
       </c>
-      <c r="J130" s="239"/>
+      <c r="J130" s="228"/>
       <c r="K130" s="24" t="s">
         <v>3068</v>
       </c>
-      <c r="L130" s="239"/>
+      <c r="L130" s="228"/>
       <c r="M130" s="7">
         <v>3</v>
       </c>
@@ -24481,28 +24457,28 @@
       <c r="N132" s="9"/>
     </row>
     <row r="133" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A133" s="221" t="s">
+      <c r="A133" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="223" t="s">
+      <c r="B133" s="217" t="s">
         <v>3069</v>
       </c>
-      <c r="C133" s="191"/>
-      <c r="D133" s="191"/>
-      <c r="E133" s="211" t="s">
+      <c r="C133" s="196"/>
+      <c r="D133" s="196"/>
+      <c r="E133" s="209" t="s">
         <v>3070</v>
       </c>
-      <c r="F133" s="191"/>
-      <c r="G133" s="191"/>
-      <c r="H133" s="191"/>
-      <c r="I133" s="190"/>
+      <c r="F133" s="196"/>
+      <c r="G133" s="196"/>
+      <c r="H133" s="196"/>
+      <c r="I133" s="189"/>
       <c r="J133" s="10"/>
       <c r="L133" s="10"/>
       <c r="M133" s="11"/>
       <c r="N133" s="9"/>
     </row>
     <row r="134" spans="1:17" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="222"/>
+      <c r="A134" s="216"/>
       <c r="B134" s="52" t="s">
         <v>368</v>
       </c>
@@ -24515,11 +24491,11 @@
       <c r="E134" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="F134" s="224" t="s">
+      <c r="F134" s="218" t="s">
         <v>370</v>
       </c>
-      <c r="G134" s="225"/>
-      <c r="H134" s="226"/>
+      <c r="G134" s="219"/>
+      <c r="H134" s="220"/>
       <c r="I134" s="64" t="s">
         <v>3229</v>
       </c>
@@ -24538,7 +24514,7 @@
       <c r="C135" s="19" t="s">
         <v>3072</v>
       </c>
-      <c r="D135" s="230">
+      <c r="D135" s="221">
         <v>64582</v>
       </c>
       <c r="E135" s="132" t="s">
@@ -24549,7 +24525,7 @@
       </c>
       <c r="G135" s="134"/>
       <c r="H135" s="150"/>
-      <c r="I135" s="227">
+      <c r="I135" s="223">
         <v>64583</v>
       </c>
       <c r="J135" s="10"/>
@@ -24567,7 +24543,7 @@
       <c r="C136" s="96" t="s">
         <v>3075</v>
       </c>
-      <c r="D136" s="231"/>
+      <c r="D136" s="222"/>
       <c r="E136" s="22" t="s">
         <v>2825</v>
       </c>
@@ -24576,7 +24552,7 @@
       </c>
       <c r="G136" s="96"/>
       <c r="H136" s="97"/>
-      <c r="I136" s="228"/>
+      <c r="I136" s="224"/>
       <c r="J136" s="10"/>
       <c r="L136" s="10"/>
       <c r="M136" s="11"/>
@@ -24592,7 +24568,7 @@
       <c r="C137" s="96" t="s">
         <v>3078</v>
       </c>
-      <c r="D137" s="231"/>
+      <c r="D137" s="222"/>
       <c r="E137" s="22" t="s">
         <v>2832</v>
       </c>
@@ -24601,7 +24577,7 @@
       </c>
       <c r="G137" s="154"/>
       <c r="H137" s="155"/>
-      <c r="I137" s="228"/>
+      <c r="I137" s="224"/>
       <c r="J137" s="10"/>
       <c r="L137" s="10"/>
       <c r="M137" s="11"/>
@@ -24617,7 +24593,7 @@
       <c r="C138" s="23" t="s">
         <v>3081</v>
       </c>
-      <c r="D138" s="186"/>
+      <c r="D138" s="204"/>
       <c r="E138" s="24" t="s">
         <v>2839</v>
       </c>
@@ -24626,7 +24602,7 @@
       </c>
       <c r="G138" s="143"/>
       <c r="H138" s="157"/>
-      <c r="I138" s="229"/>
+      <c r="I138" s="225"/>
       <c r="J138" s="10"/>
       <c r="L138" s="10"/>
       <c r="M138" s="11"/>
@@ -24644,36 +24620,36 @@
       </c>
     </row>
     <row r="142" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B142" s="211" t="s">
+      <c r="B142" s="209" t="s">
         <v>3263</v>
       </c>
-      <c r="C142" s="191"/>
-      <c r="D142" s="190"/>
-      <c r="E142" s="214" t="s">
+      <c r="C142" s="196"/>
+      <c r="D142" s="189"/>
+      <c r="E142" s="213" t="s">
         <v>3084</v>
       </c>
-      <c r="F142" s="192"/>
+      <c r="F142" s="197"/>
       <c r="G142" s="32"/>
-      <c r="H142" s="211" t="s">
+      <c r="H142" s="209" t="s">
         <v>3263</v>
       </c>
-      <c r="I142" s="191"/>
-      <c r="J142" s="190"/>
-      <c r="K142" s="214" t="s">
+      <c r="I142" s="196"/>
+      <c r="J142" s="189"/>
+      <c r="K142" s="213" t="s">
         <v>3264</v>
       </c>
-      <c r="L142" s="192"/>
-      <c r="M142" s="214" t="s">
+      <c r="L142" s="197"/>
+      <c r="M142" s="213" t="s">
         <v>3225</v>
       </c>
-      <c r="N142" s="192"/>
-      <c r="O142" s="215" t="s">
+      <c r="N142" s="197"/>
+      <c r="O142" s="229" t="s">
         <v>3226</v>
       </c>
-      <c r="P142" s="215" t="s">
+      <c r="P142" s="229" t="s">
         <v>3227</v>
       </c>
-      <c r="Q142" s="217" t="s">
+      <c r="Q142" s="230" t="s">
         <v>3228</v>
       </c>
     </row>
@@ -24720,7 +24696,7 @@
       </c>
       <c r="O143" s="180"/>
       <c r="P143" s="180"/>
-      <c r="Q143" s="239"/>
+      <c r="Q143" s="228"/>
     </row>
     <row r="144" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A144" s="132" t="s">
@@ -24732,13 +24708,13 @@
       <c r="C144" s="134" t="s">
         <v>3087</v>
       </c>
-      <c r="D144" s="219">
+      <c r="D144" s="226">
         <v>64900</v>
       </c>
       <c r="E144" s="132" t="s">
         <v>3088</v>
       </c>
-      <c r="F144" s="219">
+      <c r="F144" s="226">
         <v>64512</v>
       </c>
       <c r="G144" s="10"/>
@@ -24748,13 +24724,13 @@
       <c r="I144" s="134" t="s">
         <v>3090</v>
       </c>
-      <c r="J144" s="219">
+      <c r="J144" s="226">
         <v>64900</v>
       </c>
       <c r="K144" s="132" t="s">
         <v>3091</v>
       </c>
-      <c r="L144" s="219">
+      <c r="L144" s="226">
         <v>64512</v>
       </c>
       <c r="M144" s="8">
@@ -24783,11 +24759,11 @@
       <c r="C145" s="96" t="s">
         <v>3093</v>
       </c>
-      <c r="D145" s="220"/>
+      <c r="D145" s="227"/>
       <c r="E145" s="22" t="s">
         <v>3094</v>
       </c>
-      <c r="F145" s="220"/>
+      <c r="F145" s="227"/>
       <c r="G145" s="10"/>
       <c r="H145" s="132" t="s">
         <v>3259</v>
@@ -24795,11 +24771,11 @@
       <c r="I145" s="96" t="s">
         <v>3096</v>
       </c>
-      <c r="J145" s="220"/>
+      <c r="J145" s="227"/>
       <c r="K145" s="22" t="s">
         <v>3097</v>
       </c>
-      <c r="L145" s="220"/>
+      <c r="L145" s="227"/>
       <c r="M145" s="6">
         <v>3</v>
       </c>
@@ -24826,11 +24802,11 @@
       <c r="C146" s="96" t="s">
         <v>3099</v>
       </c>
-      <c r="D146" s="220"/>
+      <c r="D146" s="227"/>
       <c r="E146" s="22" t="s">
         <v>3100</v>
       </c>
-      <c r="F146" s="220"/>
+      <c r="F146" s="227"/>
       <c r="G146" s="10"/>
       <c r="H146" s="132" t="s">
         <v>3260</v>
@@ -24838,11 +24814,11 @@
       <c r="I146" s="96" t="s">
         <v>3102</v>
       </c>
-      <c r="J146" s="220"/>
+      <c r="J146" s="227"/>
       <c r="K146" s="22" t="s">
         <v>3103</v>
       </c>
-      <c r="L146" s="220"/>
+      <c r="L146" s="227"/>
       <c r="M146" s="6">
         <v>3</v>
       </c>
@@ -24869,11 +24845,11 @@
       <c r="C147" s="96" t="s">
         <v>3105</v>
       </c>
-      <c r="D147" s="220"/>
+      <c r="D147" s="227"/>
       <c r="E147" s="22" t="s">
         <v>3106</v>
       </c>
-      <c r="F147" s="220"/>
+      <c r="F147" s="227"/>
       <c r="G147" s="10"/>
       <c r="H147" s="132" t="s">
         <v>3261</v>
@@ -24881,11 +24857,11 @@
       <c r="I147" s="96" t="s">
         <v>3108</v>
       </c>
-      <c r="J147" s="220"/>
+      <c r="J147" s="227"/>
       <c r="K147" s="22" t="s">
         <v>3109</v>
       </c>
-      <c r="L147" s="220"/>
+      <c r="L147" s="227"/>
       <c r="M147" s="6">
         <v>3</v>
       </c>
@@ -24912,11 +24888,11 @@
       <c r="C148" s="23" t="s">
         <v>3111</v>
       </c>
-      <c r="D148" s="239"/>
+      <c r="D148" s="228"/>
       <c r="E148" s="24" t="s">
         <v>3112</v>
       </c>
-      <c r="F148" s="239"/>
+      <c r="F148" s="228"/>
       <c r="G148" s="10"/>
       <c r="H148" s="31" t="s">
         <v>3262</v>
@@ -24924,11 +24900,11 @@
       <c r="I148" s="23" t="s">
         <v>3114</v>
       </c>
-      <c r="J148" s="239"/>
+      <c r="J148" s="228"/>
       <c r="K148" s="24" t="s">
         <v>3115</v>
       </c>
-      <c r="L148" s="239"/>
+      <c r="L148" s="228"/>
       <c r="M148" s="7">
         <v>3</v>
       </c>
@@ -24962,36 +24938,36 @@
       </c>
     </row>
     <row r="151" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B151" s="211" t="s">
+      <c r="B151" s="209" t="s">
         <v>3265</v>
       </c>
-      <c r="C151" s="191"/>
-      <c r="D151" s="190"/>
-      <c r="E151" s="214" t="s">
+      <c r="C151" s="196"/>
+      <c r="D151" s="189"/>
+      <c r="E151" s="213" t="s">
         <v>3085</v>
       </c>
-      <c r="F151" s="192"/>
+      <c r="F151" s="197"/>
       <c r="G151" s="32"/>
-      <c r="H151" s="211" t="s">
+      <c r="H151" s="209" t="s">
         <v>3265</v>
       </c>
-      <c r="I151" s="191"/>
-      <c r="J151" s="190"/>
-      <c r="K151" s="214" t="s">
+      <c r="I151" s="196"/>
+      <c r="J151" s="189"/>
+      <c r="K151" s="213" t="s">
         <v>3117</v>
       </c>
-      <c r="L151" s="192"/>
-      <c r="M151" s="214" t="s">
+      <c r="L151" s="197"/>
+      <c r="M151" s="213" t="s">
         <v>3225</v>
       </c>
-      <c r="N151" s="192"/>
-      <c r="O151" s="215" t="s">
+      <c r="N151" s="197"/>
+      <c r="O151" s="229" t="s">
         <v>3226</v>
       </c>
-      <c r="P151" s="215" t="s">
+      <c r="P151" s="229" t="s">
         <v>3227</v>
       </c>
-      <c r="Q151" s="217" t="s">
+      <c r="Q151" s="230" t="s">
         <v>3228</v>
       </c>
     </row>
@@ -25038,7 +25014,7 @@
       </c>
       <c r="O152" s="180"/>
       <c r="P152" s="180"/>
-      <c r="Q152" s="239"/>
+      <c r="Q152" s="228"/>
     </row>
     <row r="153" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A153" s="132" t="s">
@@ -25050,13 +25026,13 @@
       <c r="C153" s="134" t="s">
         <v>3119</v>
       </c>
-      <c r="D153" s="219">
+      <c r="D153" s="226">
         <v>64901</v>
       </c>
       <c r="E153" s="132" t="s">
         <v>3120</v>
       </c>
-      <c r="F153" s="219">
+      <c r="F153" s="226">
         <v>64512</v>
       </c>
       <c r="G153" s="10"/>
@@ -25066,13 +25042,13 @@
       <c r="I153" s="134" t="s">
         <v>3122</v>
       </c>
-      <c r="J153" s="219">
+      <c r="J153" s="226">
         <v>64901</v>
       </c>
       <c r="K153" s="132" t="s">
         <v>3123</v>
       </c>
-      <c r="L153" s="219">
+      <c r="L153" s="226">
         <v>64512</v>
       </c>
       <c r="M153" s="8">
@@ -25101,11 +25077,11 @@
       <c r="C154" s="96" t="s">
         <v>3125</v>
       </c>
-      <c r="D154" s="220"/>
+      <c r="D154" s="227"/>
       <c r="E154" s="22" t="s">
         <v>3126</v>
       </c>
-      <c r="F154" s="220"/>
+      <c r="F154" s="227"/>
       <c r="G154" s="10"/>
       <c r="H154" s="132" t="s">
         <v>3259</v>
@@ -25113,11 +25089,11 @@
       <c r="I154" s="96" t="s">
         <v>3128</v>
       </c>
-      <c r="J154" s="220"/>
+      <c r="J154" s="227"/>
       <c r="K154" s="22" t="s">
         <v>3129</v>
       </c>
-      <c r="L154" s="220"/>
+      <c r="L154" s="227"/>
       <c r="M154" s="6">
         <v>3</v>
       </c>
@@ -25144,11 +25120,11 @@
       <c r="C155" s="96" t="s">
         <v>3131</v>
       </c>
-      <c r="D155" s="220"/>
+      <c r="D155" s="227"/>
       <c r="E155" s="22" t="s">
         <v>3132</v>
       </c>
-      <c r="F155" s="220"/>
+      <c r="F155" s="227"/>
       <c r="G155" s="10"/>
       <c r="H155" s="132" t="s">
         <v>3260</v>
@@ -25156,11 +25132,11 @@
       <c r="I155" s="96" t="s">
         <v>3134</v>
       </c>
-      <c r="J155" s="220"/>
+      <c r="J155" s="227"/>
       <c r="K155" s="22" t="s">
         <v>3135</v>
       </c>
-      <c r="L155" s="220"/>
+      <c r="L155" s="227"/>
       <c r="M155" s="6">
         <v>3</v>
       </c>
@@ -25187,11 +25163,11 @@
       <c r="C156" s="96" t="s">
         <v>3137</v>
       </c>
-      <c r="D156" s="220"/>
+      <c r="D156" s="227"/>
       <c r="E156" s="22" t="s">
         <v>3138</v>
       </c>
-      <c r="F156" s="220"/>
+      <c r="F156" s="227"/>
       <c r="G156" s="10"/>
       <c r="H156" s="132" t="s">
         <v>3261</v>
@@ -25199,11 +25175,11 @@
       <c r="I156" s="96" t="s">
         <v>3140</v>
       </c>
-      <c r="J156" s="220"/>
+      <c r="J156" s="227"/>
       <c r="K156" s="22" t="s">
         <v>3141</v>
       </c>
-      <c r="L156" s="220"/>
+      <c r="L156" s="227"/>
       <c r="M156" s="6">
         <v>3</v>
       </c>
@@ -25230,11 +25206,11 @@
       <c r="C157" s="23" t="s">
         <v>3143</v>
       </c>
-      <c r="D157" s="239"/>
+      <c r="D157" s="228"/>
       <c r="E157" s="24" t="s">
         <v>3144</v>
       </c>
-      <c r="F157" s="239"/>
+      <c r="F157" s="228"/>
       <c r="G157" s="10"/>
       <c r="H157" s="31" t="s">
         <v>3262</v>
@@ -25242,11 +25218,11 @@
       <c r="I157" s="23" t="s">
         <v>3146</v>
       </c>
-      <c r="J157" s="239"/>
+      <c r="J157" s="228"/>
       <c r="K157" s="24" t="s">
         <v>3147</v>
       </c>
-      <c r="L157" s="239"/>
+      <c r="L157" s="228"/>
       <c r="M157" s="7">
         <v>3</v>
       </c>
@@ -25275,36 +25251,36 @@
       </c>
     </row>
     <row r="161" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B161" s="211" t="s">
+      <c r="B161" s="209" t="s">
         <v>3267</v>
       </c>
-      <c r="C161" s="191"/>
-      <c r="D161" s="190"/>
-      <c r="E161" s="214" t="s">
+      <c r="C161" s="196"/>
+      <c r="D161" s="189"/>
+      <c r="E161" s="213" t="s">
         <v>3149</v>
       </c>
-      <c r="F161" s="192"/>
+      <c r="F161" s="197"/>
       <c r="G161" s="32"/>
-      <c r="H161" s="211" t="s">
+      <c r="H161" s="209" t="s">
         <v>3267</v>
       </c>
-      <c r="I161" s="191"/>
-      <c r="J161" s="190"/>
-      <c r="K161" s="214" t="s">
+      <c r="I161" s="196"/>
+      <c r="J161" s="189"/>
+      <c r="K161" s="213" t="s">
         <v>3150</v>
       </c>
-      <c r="L161" s="192"/>
-      <c r="M161" s="214" t="s">
+      <c r="L161" s="197"/>
+      <c r="M161" s="213" t="s">
         <v>3225</v>
       </c>
-      <c r="N161" s="192"/>
-      <c r="O161" s="215" t="s">
+      <c r="N161" s="197"/>
+      <c r="O161" s="229" t="s">
         <v>3226</v>
       </c>
-      <c r="P161" s="215" t="s">
+      <c r="P161" s="229" t="s">
         <v>3227</v>
       </c>
-      <c r="Q161" s="217" t="s">
+      <c r="Q161" s="230" t="s">
         <v>3228</v>
       </c>
     </row>
@@ -25351,7 +25327,7 @@
       </c>
       <c r="O162" s="180"/>
       <c r="P162" s="180"/>
-      <c r="Q162" s="239"/>
+      <c r="Q162" s="228"/>
     </row>
     <row r="163" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A163" s="28" t="s">
@@ -25363,13 +25339,13 @@
       <c r="C163" s="19" t="s">
         <v>3152</v>
       </c>
-      <c r="D163" s="219">
+      <c r="D163" s="226">
         <v>64580</v>
       </c>
       <c r="E163" s="21" t="s">
         <v>3153</v>
       </c>
-      <c r="F163" s="219">
+      <c r="F163" s="226">
         <v>64518</v>
       </c>
       <c r="G163" s="10"/>
@@ -25379,13 +25355,13 @@
       <c r="I163" s="19" t="s">
         <v>3155</v>
       </c>
-      <c r="J163" s="219">
+      <c r="J163" s="226">
         <v>64580</v>
       </c>
       <c r="K163" s="21" t="s">
         <v>3156</v>
       </c>
-      <c r="L163" s="219">
+      <c r="L163" s="226">
         <v>64518</v>
       </c>
       <c r="M163" s="8">
@@ -25414,11 +25390,11 @@
       <c r="C164" s="96" t="s">
         <v>3158</v>
       </c>
-      <c r="D164" s="220"/>
+      <c r="D164" s="227"/>
       <c r="E164" s="22" t="s">
         <v>3159</v>
       </c>
-      <c r="F164" s="220"/>
+      <c r="F164" s="227"/>
       <c r="G164" s="10"/>
       <c r="H164" s="132" t="s">
         <v>3236</v>
@@ -25426,11 +25402,11 @@
       <c r="I164" s="96" t="s">
         <v>3161</v>
       </c>
-      <c r="J164" s="220"/>
+      <c r="J164" s="227"/>
       <c r="K164" s="22" t="s">
         <v>3162</v>
       </c>
-      <c r="L164" s="220"/>
+      <c r="L164" s="227"/>
       <c r="M164" s="6">
         <v>3</v>
       </c>
@@ -25457,11 +25433,11 @@
       <c r="C165" s="96" t="s">
         <v>3164</v>
       </c>
-      <c r="D165" s="220"/>
+      <c r="D165" s="227"/>
       <c r="E165" s="22" t="s">
         <v>3165</v>
       </c>
-      <c r="F165" s="220"/>
+      <c r="F165" s="227"/>
       <c r="G165" s="10"/>
       <c r="H165" s="132" t="s">
         <v>3238</v>
@@ -25469,11 +25445,11 @@
       <c r="I165" s="96" t="s">
         <v>3167</v>
       </c>
-      <c r="J165" s="220"/>
+      <c r="J165" s="227"/>
       <c r="K165" s="22" t="s">
         <v>3168</v>
       </c>
-      <c r="L165" s="220"/>
+      <c r="L165" s="227"/>
       <c r="M165" s="6">
         <v>3</v>
       </c>
@@ -25500,11 +25476,11 @@
       <c r="C166" s="96" t="s">
         <v>3170</v>
       </c>
-      <c r="D166" s="220"/>
+      <c r="D166" s="227"/>
       <c r="E166" s="22" t="s">
         <v>3171</v>
       </c>
-      <c r="F166" s="220"/>
+      <c r="F166" s="227"/>
       <c r="G166" s="10"/>
       <c r="H166" s="132" t="s">
         <v>3240</v>
@@ -25512,11 +25488,11 @@
       <c r="I166" s="96" t="s">
         <v>3173</v>
       </c>
-      <c r="J166" s="220"/>
+      <c r="J166" s="227"/>
       <c r="K166" s="22" t="s">
         <v>3174</v>
       </c>
-      <c r="L166" s="220"/>
+      <c r="L166" s="227"/>
       <c r="M166" s="6">
         <v>3</v>
       </c>
@@ -25543,11 +25519,11 @@
       <c r="C167" s="23" t="s">
         <v>3176</v>
       </c>
-      <c r="D167" s="239"/>
+      <c r="D167" s="228"/>
       <c r="E167" s="24" t="s">
         <v>3177</v>
       </c>
-      <c r="F167" s="239"/>
+      <c r="F167" s="228"/>
       <c r="G167" s="10"/>
       <c r="H167" s="31" t="s">
         <v>3242</v>
@@ -25555,11 +25531,11 @@
       <c r="I167" s="23" t="s">
         <v>3179</v>
       </c>
-      <c r="J167" s="239"/>
+      <c r="J167" s="228"/>
       <c r="K167" s="24" t="s">
         <v>3180</v>
       </c>
-      <c r="L167" s="239"/>
+      <c r="L167" s="228"/>
       <c r="M167" s="7">
         <v>3</v>
       </c>
@@ -25593,36 +25569,36 @@
       </c>
     </row>
     <row r="170" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B170" s="211" t="s">
+      <c r="B170" s="209" t="s">
         <v>3268</v>
       </c>
-      <c r="C170" s="191"/>
-      <c r="D170" s="190"/>
-      <c r="E170" s="214" t="s">
+      <c r="C170" s="196"/>
+      <c r="D170" s="189"/>
+      <c r="E170" s="213" t="s">
         <v>3182</v>
       </c>
-      <c r="F170" s="192"/>
+      <c r="F170" s="197"/>
       <c r="G170" s="32"/>
-      <c r="H170" s="211" t="s">
+      <c r="H170" s="209" t="s">
         <v>3268</v>
       </c>
-      <c r="I170" s="191"/>
-      <c r="J170" s="190"/>
-      <c r="K170" s="214" t="s">
+      <c r="I170" s="196"/>
+      <c r="J170" s="189"/>
+      <c r="K170" s="213" t="s">
         <v>3183</v>
       </c>
-      <c r="L170" s="192"/>
-      <c r="M170" s="214" t="s">
+      <c r="L170" s="197"/>
+      <c r="M170" s="213" t="s">
         <v>3225</v>
       </c>
-      <c r="N170" s="192"/>
-      <c r="O170" s="215" t="s">
+      <c r="N170" s="197"/>
+      <c r="O170" s="229" t="s">
         <v>3226</v>
       </c>
-      <c r="P170" s="215" t="s">
+      <c r="P170" s="229" t="s">
         <v>3227</v>
       </c>
-      <c r="Q170" s="217" t="s">
+      <c r="Q170" s="230" t="s">
         <v>3228</v>
       </c>
     </row>
@@ -25669,7 +25645,7 @@
       </c>
       <c r="O171" s="180"/>
       <c r="P171" s="180"/>
-      <c r="Q171" s="239"/>
+      <c r="Q171" s="228"/>
     </row>
     <row r="172" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A172" s="132" t="s">
@@ -25681,13 +25657,13 @@
       <c r="C172" s="19" t="s">
         <v>3185</v>
       </c>
-      <c r="D172" s="219">
+      <c r="D172" s="226">
         <v>64581</v>
       </c>
       <c r="E172" s="21" t="s">
         <v>3186</v>
       </c>
-      <c r="F172" s="219">
+      <c r="F172" s="226">
         <v>64518</v>
       </c>
       <c r="G172" s="10"/>
@@ -25697,13 +25673,13 @@
       <c r="I172" s="19" t="s">
         <v>3188</v>
       </c>
-      <c r="J172" s="219">
+      <c r="J172" s="226">
         <v>64581</v>
       </c>
       <c r="K172" s="21" t="s">
         <v>3189</v>
       </c>
-      <c r="L172" s="219">
+      <c r="L172" s="226">
         <v>64518</v>
       </c>
       <c r="M172" s="8">
@@ -25732,11 +25708,11 @@
       <c r="C173" s="96" t="s">
         <v>3191</v>
       </c>
-      <c r="D173" s="220"/>
+      <c r="D173" s="227"/>
       <c r="E173" s="22" t="s">
         <v>3192</v>
       </c>
-      <c r="F173" s="220"/>
+      <c r="F173" s="227"/>
       <c r="G173" s="10"/>
       <c r="H173" s="132" t="s">
         <v>3236</v>
@@ -25744,11 +25720,11 @@
       <c r="I173" s="96" t="s">
         <v>3194</v>
       </c>
-      <c r="J173" s="220"/>
+      <c r="J173" s="227"/>
       <c r="K173" s="22" t="s">
         <v>3195</v>
       </c>
-      <c r="L173" s="220"/>
+      <c r="L173" s="227"/>
       <c r="M173" s="6">
         <v>3</v>
       </c>
@@ -25775,11 +25751,11 @@
       <c r="C174" s="96" t="s">
         <v>3197</v>
       </c>
-      <c r="D174" s="220"/>
+      <c r="D174" s="227"/>
       <c r="E174" s="22" t="s">
         <v>3198</v>
       </c>
-      <c r="F174" s="220"/>
+      <c r="F174" s="227"/>
       <c r="G174" s="10"/>
       <c r="H174" s="132" t="s">
         <v>3238</v>
@@ -25787,11 +25763,11 @@
       <c r="I174" s="96" t="s">
         <v>3200</v>
       </c>
-      <c r="J174" s="220"/>
+      <c r="J174" s="227"/>
       <c r="K174" s="22" t="s">
         <v>3201</v>
       </c>
-      <c r="L174" s="220"/>
+      <c r="L174" s="227"/>
       <c r="M174" s="6">
         <v>3</v>
       </c>
@@ -25818,11 +25794,11 @@
       <c r="C175" s="96" t="s">
         <v>3203</v>
       </c>
-      <c r="D175" s="220"/>
+      <c r="D175" s="227"/>
       <c r="E175" s="22" t="s">
         <v>3204</v>
       </c>
-      <c r="F175" s="220"/>
+      <c r="F175" s="227"/>
       <c r="G175" s="10"/>
       <c r="H175" s="132" t="s">
         <v>3240</v>
@@ -25830,11 +25806,11 @@
       <c r="I175" s="96" t="s">
         <v>3206</v>
       </c>
-      <c r="J175" s="220"/>
+      <c r="J175" s="227"/>
       <c r="K175" s="22" t="s">
         <v>3207</v>
       </c>
-      <c r="L175" s="220"/>
+      <c r="L175" s="227"/>
       <c r="M175" s="6">
         <v>3</v>
       </c>
@@ -25861,11 +25837,11 @@
       <c r="C176" s="23" t="s">
         <v>3209</v>
       </c>
-      <c r="D176" s="239"/>
+      <c r="D176" s="228"/>
       <c r="E176" s="24" t="s">
         <v>3210</v>
       </c>
-      <c r="F176" s="239"/>
+      <c r="F176" s="228"/>
       <c r="G176" s="10"/>
       <c r="H176" s="31" t="s">
         <v>3242</v>
@@ -25873,11 +25849,11 @@
       <c r="I176" s="23" t="s">
         <v>3212</v>
       </c>
-      <c r="J176" s="239"/>
+      <c r="J176" s="228"/>
       <c r="K176" s="24" t="s">
         <v>3213</v>
       </c>
-      <c r="L176" s="239"/>
+      <c r="L176" s="228"/>
       <c r="M176" s="7">
         <v>3</v>
       </c>
@@ -25905,24 +25881,24 @@
       <c r="G178" s="10"/>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A179" s="221" t="s">
+      <c r="A179" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="B179" s="223" t="s">
+      <c r="B179" s="217" t="s">
         <v>2989</v>
       </c>
-      <c r="C179" s="191"/>
-      <c r="D179" s="191"/>
-      <c r="E179" s="211" t="s">
+      <c r="C179" s="196"/>
+      <c r="D179" s="196"/>
+      <c r="E179" s="209" t="s">
         <v>2990</v>
       </c>
-      <c r="F179" s="191"/>
-      <c r="G179" s="191"/>
-      <c r="H179" s="191"/>
-      <c r="I179" s="190"/>
+      <c r="F179" s="196"/>
+      <c r="G179" s="196"/>
+      <c r="H179" s="196"/>
+      <c r="I179" s="189"/>
     </row>
     <row r="180" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="222"/>
+      <c r="A180" s="216"/>
       <c r="B180" s="52" t="s">
         <v>368</v>
       </c>
@@ -25935,11 +25911,11 @@
       <c r="E180" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="F180" s="224" t="s">
+      <c r="F180" s="218" t="s">
         <v>370</v>
       </c>
-      <c r="G180" s="225"/>
-      <c r="H180" s="226"/>
+      <c r="G180" s="219"/>
+      <c r="H180" s="220"/>
       <c r="I180" s="64" t="s">
         <v>3229</v>
       </c>
@@ -25954,18 +25930,18 @@
       <c r="C181" s="58" t="s">
         <v>3215</v>
       </c>
-      <c r="D181" s="230">
+      <c r="D181" s="221">
         <v>64580</v>
       </c>
       <c r="E181" s="132" t="s">
         <v>2818</v>
       </c>
-      <c r="F181" s="232" t="s">
+      <c r="F181" s="237" t="s">
         <v>3216</v>
       </c>
-      <c r="G181" s="191"/>
-      <c r="H181" s="190"/>
-      <c r="I181" s="227">
+      <c r="G181" s="196"/>
+      <c r="H181" s="189"/>
+      <c r="I181" s="223">
         <v>64581</v>
       </c>
     </row>
@@ -25979,16 +25955,16 @@
       <c r="C182" s="97" t="s">
         <v>3218</v>
       </c>
-      <c r="D182" s="231"/>
+      <c r="D182" s="222"/>
       <c r="E182" s="22" t="s">
         <v>2825</v>
       </c>
-      <c r="F182" s="233" t="s">
+      <c r="F182" s="238" t="s">
         <v>361</v>
       </c>
-      <c r="G182" s="234"/>
-      <c r="H182" s="235"/>
-      <c r="I182" s="228"/>
+      <c r="G182" s="239"/>
+      <c r="H182" s="240"/>
+      <c r="I182" s="224"/>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="56" t="s">
@@ -26000,16 +25976,16 @@
       <c r="C183" s="97" t="s">
         <v>3220</v>
       </c>
-      <c r="D183" s="231"/>
+      <c r="D183" s="222"/>
       <c r="E183" s="22" t="s">
         <v>2832</v>
       </c>
-      <c r="F183" s="233" t="s">
+      <c r="F183" s="238" t="s">
         <v>3221</v>
       </c>
-      <c r="G183" s="234"/>
-      <c r="H183" s="235"/>
-      <c r="I183" s="228"/>
+      <c r="G183" s="239"/>
+      <c r="H183" s="240"/>
+      <c r="I183" s="224"/>
     </row>
     <row r="184" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="57" t="s">
@@ -26021,126 +25997,102 @@
       <c r="C184" s="59" t="s">
         <v>3223</v>
       </c>
-      <c r="D184" s="186"/>
+      <c r="D184" s="204"/>
       <c r="E184" s="24" t="s">
         <v>2839</v>
       </c>
-      <c r="F184" s="236" t="s">
+      <c r="F184" s="241" t="s">
         <v>363</v>
       </c>
-      <c r="G184" s="225"/>
-      <c r="H184" s="237"/>
-      <c r="I184" s="229"/>
+      <c r="G184" s="219"/>
+      <c r="H184" s="242"/>
+      <c r="I184" s="225"/>
       <c r="Q184" t="s">
         <v>3269</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="211">
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="E78:I78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="I80:I83"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="E133:I133"/>
-    <mergeCell ref="F134:H134"/>
-    <mergeCell ref="D126:D130"/>
-    <mergeCell ref="F126:F130"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="E105:I105"/>
-    <mergeCell ref="K151:L151"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="D153:D157"/>
-    <mergeCell ref="F153:F157"/>
-    <mergeCell ref="L153:L157"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="K142:L142"/>
-    <mergeCell ref="M142:N142"/>
-    <mergeCell ref="D144:D148"/>
-    <mergeCell ref="F144:F148"/>
-    <mergeCell ref="L144:L148"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="H142:J142"/>
-    <mergeCell ref="H151:J151"/>
-    <mergeCell ref="J144:J148"/>
-    <mergeCell ref="J153:J157"/>
-    <mergeCell ref="O170:O171"/>
-    <mergeCell ref="P170:P171"/>
-    <mergeCell ref="Q170:Q171"/>
-    <mergeCell ref="O142:O143"/>
-    <mergeCell ref="P142:P143"/>
-    <mergeCell ref="Q142:Q143"/>
-    <mergeCell ref="O151:O152"/>
-    <mergeCell ref="P151:P152"/>
-    <mergeCell ref="Q151:Q152"/>
-    <mergeCell ref="O161:O162"/>
-    <mergeCell ref="P161:P162"/>
-    <mergeCell ref="Q161:Q162"/>
-    <mergeCell ref="O124:O125"/>
-    <mergeCell ref="P124:P125"/>
-    <mergeCell ref="Q124:Q125"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="Q87:Q88"/>
-    <mergeCell ref="O96:O97"/>
-    <mergeCell ref="P96:P97"/>
-    <mergeCell ref="Q96:Q97"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="O115:O116"/>
-    <mergeCell ref="P115:P116"/>
-    <mergeCell ref="Q115:Q116"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="Q69:Q70"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="K170:L170"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="D172:D176"/>
-    <mergeCell ref="F172:F176"/>
-    <mergeCell ref="L172:L176"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="K161:L161"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="D163:D167"/>
-    <mergeCell ref="F163:F167"/>
-    <mergeCell ref="L163:L167"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="J163:J167"/>
-    <mergeCell ref="H161:J161"/>
-    <mergeCell ref="B170:D170"/>
-    <mergeCell ref="H170:J170"/>
-    <mergeCell ref="J172:J176"/>
-    <mergeCell ref="E170:F170"/>
-    <mergeCell ref="L126:L130"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="K115:L115"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="D117:D121"/>
-    <mergeCell ref="F117:F121"/>
-    <mergeCell ref="L117:L121"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="H115:J115"/>
-    <mergeCell ref="H124:J124"/>
-    <mergeCell ref="J117:J121"/>
-    <mergeCell ref="J126:J130"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="J35:J39"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="I45:I48"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="D135:D138"/>
+    <mergeCell ref="I135:I138"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="B179:D179"/>
+    <mergeCell ref="E179:I179"/>
+    <mergeCell ref="F180:H180"/>
+    <mergeCell ref="D181:D184"/>
+    <mergeCell ref="F181:H181"/>
+    <mergeCell ref="I181:I184"/>
+    <mergeCell ref="F182:H182"/>
+    <mergeCell ref="F183:H183"/>
+    <mergeCell ref="F184:H184"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="J26:J30"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="L16:L20"/>
+    <mergeCell ref="L35:L39"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="L7:L11"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="L26:L30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="J62:J66"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="I53:I56"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="F71:F75"/>
+    <mergeCell ref="L71:L75"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="F62:F66"/>
+    <mergeCell ref="L62:L66"/>
+    <mergeCell ref="J71:J75"/>
     <mergeCell ref="M96:N96"/>
     <mergeCell ref="E87:F87"/>
     <mergeCell ref="K87:L87"/>
@@ -26165,89 +26117,113 @@
     <mergeCell ref="B105:D105"/>
     <mergeCell ref="D107:D110"/>
     <mergeCell ref="I107:I110"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="F71:F75"/>
-    <mergeCell ref="L71:L75"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="F62:F66"/>
-    <mergeCell ref="L62:L66"/>
-    <mergeCell ref="J71:J75"/>
-    <mergeCell ref="L35:L39"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="L7:L11"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="L26:L30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="J62:J66"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="I53:I56"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="J26:J30"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="D135:D138"/>
-    <mergeCell ref="I135:I138"/>
-    <mergeCell ref="E151:F151"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="B179:D179"/>
-    <mergeCell ref="E179:I179"/>
-    <mergeCell ref="F180:H180"/>
-    <mergeCell ref="D181:D184"/>
-    <mergeCell ref="F181:H181"/>
-    <mergeCell ref="I181:I184"/>
-    <mergeCell ref="F182:H182"/>
-    <mergeCell ref="F183:H183"/>
-    <mergeCell ref="F184:H184"/>
-    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="L126:L130"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="K115:L115"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="D117:D121"/>
+    <mergeCell ref="F117:F121"/>
+    <mergeCell ref="L117:L121"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="H115:J115"/>
+    <mergeCell ref="H124:J124"/>
+    <mergeCell ref="J117:J121"/>
+    <mergeCell ref="J126:J130"/>
+    <mergeCell ref="K170:L170"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="D172:D176"/>
+    <mergeCell ref="F172:F176"/>
+    <mergeCell ref="L172:L176"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="K161:L161"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="D163:D167"/>
+    <mergeCell ref="F163:F167"/>
+    <mergeCell ref="L163:L167"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="J163:J167"/>
+    <mergeCell ref="H161:J161"/>
+    <mergeCell ref="B170:D170"/>
+    <mergeCell ref="H170:J170"/>
+    <mergeCell ref="J172:J176"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="O115:O116"/>
+    <mergeCell ref="P115:P116"/>
+    <mergeCell ref="Q115:Q116"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="Q69:Q70"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
     <mergeCell ref="O14:O15"/>
     <mergeCell ref="P14:P15"/>
     <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="J16:J20"/>
-    <mergeCell ref="L16:L20"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="I45:I48"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="F35:F39"/>
-    <mergeCell ref="J35:J39"/>
+    <mergeCell ref="O124:O125"/>
+    <mergeCell ref="P124:P125"/>
+    <mergeCell ref="Q124:Q125"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="Q87:Q88"/>
+    <mergeCell ref="O96:O97"/>
+    <mergeCell ref="P96:P97"/>
+    <mergeCell ref="Q96:Q97"/>
+    <mergeCell ref="O170:O171"/>
+    <mergeCell ref="P170:P171"/>
+    <mergeCell ref="Q170:Q171"/>
+    <mergeCell ref="O142:O143"/>
+    <mergeCell ref="P142:P143"/>
+    <mergeCell ref="Q142:Q143"/>
+    <mergeCell ref="O151:O152"/>
+    <mergeCell ref="P151:P152"/>
+    <mergeCell ref="Q151:Q152"/>
+    <mergeCell ref="O161:O162"/>
+    <mergeCell ref="P161:P162"/>
+    <mergeCell ref="Q161:Q162"/>
+    <mergeCell ref="K151:L151"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="D153:D157"/>
+    <mergeCell ref="F153:F157"/>
+    <mergeCell ref="L153:L157"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="K142:L142"/>
+    <mergeCell ref="M142:N142"/>
+    <mergeCell ref="D144:D148"/>
+    <mergeCell ref="F144:F148"/>
+    <mergeCell ref="L144:L148"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="H142:J142"/>
+    <mergeCell ref="H151:J151"/>
+    <mergeCell ref="J144:J148"/>
+    <mergeCell ref="J153:J157"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="E78:I78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="E133:I133"/>
+    <mergeCell ref="F134:H134"/>
+    <mergeCell ref="D126:D130"/>
+    <mergeCell ref="F126:F130"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="E105:I105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -26255,11 +26231,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26845,7 +26821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26870,7 +26846,7 @@
       <c r="E2" s="243" t="s">
         <v>3338</v>
       </c>
-      <c r="F2" s="200"/>
+      <c r="F2" s="191"/>
       <c r="G2" s="244"/>
       <c r="H2" s="243" t="s">
         <v>3339</v>
@@ -27118,7 +27094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P226"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -33005,12 +32981,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3A990C-D5E7-4102-A1E5-4D5095A49C4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P302"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J293" sqref="J293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33078,7 +33054,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="85" t="s">
         <v>690</v>
       </c>
@@ -33103,7 +33079,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="162" t="s">
         <v>693</v>
       </c>
@@ -33127,7 +33103,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="162" t="s">
         <v>695</v>
       </c>
@@ -33151,7 +33127,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="162" t="s">
         <v>697</v>
       </c>
@@ -33175,7 +33151,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="162" t="s">
         <v>699</v>
       </c>
@@ -33199,7 +33175,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="162" t="s">
         <v>701</v>
       </c>
@@ -33223,7 +33199,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="162" t="s">
         <v>703</v>
       </c>
@@ -33247,7 +33223,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="162" t="s">
         <v>705</v>
       </c>
@@ -33271,7 +33247,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="162" t="s">
         <v>707</v>
       </c>
@@ -33295,7 +33271,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="162" t="s">
         <v>709</v>
       </c>
@@ -33319,7 +33295,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="162" t="s">
         <v>711</v>
       </c>
@@ -33343,7 +33319,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="162" t="s">
         <v>713</v>
       </c>
@@ -33367,7 +33343,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="162" t="s">
         <v>715</v>
       </c>
@@ -33391,7 +33367,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="162" t="s">
         <v>717</v>
       </c>
@@ -33415,7 +33391,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="162" t="s">
         <v>719</v>
       </c>
@@ -33439,7 +33415,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="162" t="s">
         <v>721</v>
       </c>
@@ -33463,7 +33439,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="162" t="s">
         <v>723</v>
       </c>
@@ -33487,7 +33463,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="162" t="s">
         <v>725</v>
       </c>
@@ -33511,7 +33487,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="162" t="s">
         <v>727</v>
       </c>
@@ -33535,7 +33511,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="162" t="s">
         <v>729</v>
       </c>
@@ -33559,7 +33535,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="162" t="s">
         <v>731</v>
       </c>
@@ -33583,7 +33559,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="125" t="s">
         <v>733</v>
       </c>
@@ -33608,7 +33584,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="162" t="s">
         <v>690</v>
       </c>
@@ -33632,7 +33608,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="162" t="s">
         <v>693</v>
       </c>
@@ -33656,7 +33632,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="162" t="s">
         <v>695</v>
       </c>
@@ -33680,7 +33656,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="162" t="s">
         <v>697</v>
       </c>
@@ -33704,7 +33680,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="162" t="s">
         <v>699</v>
       </c>
@@ -33728,7 +33704,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="162" t="s">
         <v>701</v>
       </c>
@@ -33752,7 +33728,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="162" t="s">
         <v>703</v>
       </c>
@@ -33776,7 +33752,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="162" t="s">
         <v>705</v>
       </c>
@@ -33800,7 +33776,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="162" t="s">
         <v>707</v>
       </c>
@@ -33824,7 +33800,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="162" t="s">
         <v>709</v>
       </c>
@@ -33848,7 +33824,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="162" t="s">
         <v>711</v>
       </c>
@@ -33872,7 +33848,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="162" t="s">
         <v>713</v>
       </c>
@@ -33896,7 +33872,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="162" t="s">
         <v>715</v>
       </c>
@@ -33920,7 +33896,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="162" t="s">
         <v>717</v>
       </c>
@@ -33944,7 +33920,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="162" t="s">
         <v>719</v>
       </c>
@@ -33968,7 +33944,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="162" t="s">
         <v>721</v>
       </c>
@@ -33992,7 +33968,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="162" t="s">
         <v>723</v>
       </c>
@@ -34016,7 +33992,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="162" t="s">
         <v>725</v>
       </c>
@@ -34040,7 +34016,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="162" t="s">
         <v>727</v>
       </c>
@@ -34064,7 +34040,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="162" t="s">
         <v>729</v>
       </c>
@@ -34088,7 +34064,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="162" t="s">
         <v>731</v>
       </c>
@@ -34112,7 +34088,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="125" t="s">
         <v>733</v>
       </c>
@@ -34137,7 +34113,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="162" t="s">
         <v>825</v>
       </c>
@@ -34161,7 +34137,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="162" t="s">
         <v>827</v>
       </c>
@@ -34185,7 +34161,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="162" t="s">
         <v>829</v>
       </c>
@@ -34209,7 +34185,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="162" t="s">
         <v>831</v>
       </c>
@@ -34233,7 +34209,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="162" t="s">
         <v>833</v>
       </c>
@@ -34257,7 +34233,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="162" t="s">
         <v>835</v>
       </c>
@@ -34281,7 +34257,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="162" t="s">
         <v>837</v>
       </c>
@@ -34305,7 +34281,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="162" t="s">
         <v>839</v>
       </c>
@@ -34329,7 +34305,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="162" t="s">
         <v>841</v>
       </c>
@@ -34353,7 +34329,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="162" t="s">
         <v>843</v>
       </c>
@@ -34377,7 +34353,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="162" t="s">
         <v>845</v>
       </c>
@@ -34401,7 +34377,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="162" t="s">
         <v>847</v>
       </c>
@@ -34425,7 +34401,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="162" t="s">
         <v>849</v>
       </c>
@@ -34449,7 +34425,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="162" t="s">
         <v>851</v>
       </c>
@@ -34473,7 +34449,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="162" t="s">
         <v>853</v>
       </c>
@@ -34497,7 +34473,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="162" t="s">
         <v>855</v>
       </c>
@@ -34521,7 +34497,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="162" t="s">
         <v>857</v>
       </c>
@@ -34545,7 +34521,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="162" t="s">
         <v>859</v>
       </c>
@@ -34569,7 +34545,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="162" t="s">
         <v>861</v>
       </c>
@@ -34593,7 +34569,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="162" t="s">
         <v>863</v>
       </c>
@@ -34617,7 +34593,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="162" t="s">
         <v>865</v>
       </c>
@@ -34641,7 +34617,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="125" t="s">
         <v>867</v>
       </c>
@@ -34666,7 +34642,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="162" t="s">
         <v>825</v>
       </c>
@@ -34690,7 +34666,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="162" t="s">
         <v>827</v>
       </c>
@@ -34714,7 +34690,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="162" t="s">
         <v>829</v>
       </c>
@@ -34738,7 +34714,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="162" t="s">
         <v>831</v>
       </c>
@@ -34762,7 +34738,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="162" t="s">
         <v>833</v>
       </c>
@@ -34786,7 +34762,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="162" t="s">
         <v>835</v>
       </c>
@@ -34810,7 +34786,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="162" t="s">
         <v>837</v>
       </c>
@@ -34834,7 +34810,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="162" t="s">
         <v>839</v>
       </c>
@@ -34858,7 +34834,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="162" t="s">
         <v>841</v>
       </c>
@@ -34882,7 +34858,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="162" t="s">
         <v>843</v>
       </c>
@@ -34906,7 +34882,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="162" t="s">
         <v>845</v>
       </c>
@@ -34930,7 +34906,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="162" t="s">
         <v>847</v>
       </c>
@@ -34954,7 +34930,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="162" t="s">
         <v>849</v>
       </c>
@@ -34978,7 +34954,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="162" t="s">
         <v>851</v>
       </c>
@@ -35002,7 +34978,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="162" t="s">
         <v>853</v>
       </c>
@@ -35026,7 +35002,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="162" t="s">
         <v>855</v>
       </c>
@@ -35050,7 +35026,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="162" t="s">
         <v>857</v>
       </c>
@@ -35074,7 +35050,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="162" t="s">
         <v>859</v>
       </c>
@@ -35098,7 +35074,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="162" t="s">
         <v>861</v>
       </c>
@@ -35122,7 +35098,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="162" t="s">
         <v>863</v>
       </c>
@@ -35146,7 +35122,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="162" t="s">
         <v>865</v>
       </c>
@@ -35170,7 +35146,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="163" t="s">
         <v>867</v>
       </c>
@@ -35195,7 +35171,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="162" t="s">
         <v>690</v>
       </c>
@@ -35222,7 +35198,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="162" t="s">
         <v>693</v>
       </c>
@@ -35249,7 +35225,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="162" t="s">
         <v>695</v>
       </c>
@@ -35276,7 +35252,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="162" t="s">
         <v>697</v>
       </c>
@@ -35303,7 +35279,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="162" t="s">
         <v>699</v>
       </c>
@@ -35330,7 +35306,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="162" t="s">
         <v>701</v>
       </c>
@@ -35357,7 +35333,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="162" t="s">
         <v>703</v>
       </c>
@@ -35384,7 +35360,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="162" t="s">
         <v>705</v>
       </c>
@@ -35411,7 +35387,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="162" t="s">
         <v>707</v>
       </c>
@@ -35438,7 +35414,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="162" t="s">
         <v>709</v>
       </c>
@@ -35465,7 +35441,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="162" t="s">
         <v>711</v>
       </c>
@@ -35492,7 +35468,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="162" t="s">
         <v>713</v>
       </c>
@@ -35519,7 +35495,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="162" t="s">
         <v>715</v>
       </c>
@@ -35546,7 +35522,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="162" t="s">
         <v>717</v>
       </c>
@@ -35573,7 +35549,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="162" t="s">
         <v>719</v>
       </c>
@@ -35600,7 +35576,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="125" t="s">
         <v>721</v>
       </c>
@@ -35627,7 +35603,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="162" t="s">
         <v>723</v>
       </c>
@@ -35654,7 +35630,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="162" t="s">
         <v>725</v>
       </c>
@@ -35681,7 +35657,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="162" t="s">
         <v>727</v>
       </c>
@@ -35708,7 +35684,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="125" t="s">
         <v>729</v>
       </c>
@@ -35897,7 +35873,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="162" t="s">
         <v>723</v>
       </c>
@@ -35924,7 +35900,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="125" t="s">
         <v>725</v>
       </c>
@@ -35951,7 +35927,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="165" t="s">
         <v>727</v>
       </c>
@@ -35978,7 +35954,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="165" t="s">
         <v>729</v>
       </c>
@@ -36005,7 +35981,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="162" t="s">
         <v>825</v>
       </c>
@@ -36032,7 +36008,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="162" t="s">
         <v>827</v>
       </c>
@@ -36059,7 +36035,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="162" t="s">
         <v>829</v>
       </c>
@@ -36086,7 +36062,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="162" t="s">
         <v>831</v>
       </c>
@@ -36113,7 +36089,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="162" t="s">
         <v>833</v>
       </c>
@@ -36140,7 +36116,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="162" t="s">
         <v>835</v>
       </c>
@@ -36167,7 +36143,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="162" t="s">
         <v>837</v>
       </c>
@@ -36194,7 +36170,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="162" t="s">
         <v>839</v>
       </c>
@@ -36221,7 +36197,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="162" t="s">
         <v>841</v>
       </c>
@@ -36248,7 +36224,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="162" t="s">
         <v>843</v>
       </c>
@@ -36275,7 +36251,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="162" t="s">
         <v>845</v>
       </c>
@@ -36302,7 +36278,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="162" t="s">
         <v>847</v>
       </c>
@@ -36329,7 +36305,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="162" t="s">
         <v>849</v>
       </c>
@@ -36356,7 +36332,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="162" t="s">
         <v>851</v>
       </c>
@@ -36383,7 +36359,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="162" t="s">
         <v>853</v>
       </c>
@@ -36410,7 +36386,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="125" t="s">
         <v>855</v>
       </c>
@@ -36437,7 +36413,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="85" t="s">
         <v>857</v>
       </c>
@@ -36464,7 +36440,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="162" t="s">
         <v>859</v>
       </c>
@@ -36491,7 +36467,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="162" t="s">
         <v>861</v>
       </c>
@@ -36518,7 +36494,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="125" t="s">
         <v>863</v>
       </c>
@@ -36707,7 +36683,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="162" t="s">
         <v>857</v>
       </c>
@@ -36734,7 +36710,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="125" t="s">
         <v>859</v>
       </c>
@@ -36761,7 +36737,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="165" t="s">
         <v>861</v>
       </c>
@@ -36788,7 +36764,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="164" t="s">
         <v>863</v>
       </c>
@@ -36815,7 +36791,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="162" t="s">
         <v>723</v>
       </c>
@@ -36842,7 +36818,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="162" t="s">
         <v>725</v>
       </c>
@@ -36869,7 +36845,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="162" t="s">
         <v>727</v>
       </c>
@@ -36896,7 +36872,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="125" t="s">
         <v>729</v>
       </c>
@@ -36923,7 +36899,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="162" t="s">
         <v>857</v>
       </c>
@@ -36950,7 +36926,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="162" t="s">
         <v>859</v>
       </c>
@@ -36977,7 +36953,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="162" t="s">
         <v>861</v>
       </c>
@@ -37004,7 +36980,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="163" t="s">
         <v>863</v>
       </c>
@@ -38435,7 +38411,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B213" s="162" t="s">
         <v>1223</v>
       </c>
@@ -38459,7 +38435,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="162" t="s">
         <v>723</v>
       </c>
@@ -38486,7 +38462,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="162" t="s">
         <v>725</v>
       </c>
@@ -38513,7 +38489,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B216" s="162" t="s">
         <v>1224</v>
       </c>
@@ -38537,7 +38513,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="162" t="s">
         <v>857</v>
       </c>
@@ -38564,7 +38540,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="125" t="s">
         <v>859</v>
       </c>
@@ -38591,7 +38567,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="162" t="s">
         <v>727</v>
       </c>
@@ -38618,7 +38594,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="163" t="s">
         <v>861</v>
       </c>
@@ -38645,7 +38621,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B221" s="162" t="s">
         <v>1223</v>
       </c>
@@ -38669,7 +38645,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="162" t="s">
         <v>723</v>
       </c>
@@ -38696,7 +38672,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="125" t="s">
         <v>725</v>
       </c>
@@ -38723,7 +38699,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B224" s="162" t="s">
         <v>1224</v>
       </c>
@@ -38747,7 +38723,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="162" t="s">
         <v>857</v>
       </c>
@@ -38774,7 +38750,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="163" t="s">
         <v>859</v>
       </c>
@@ -39271,7 +39247,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="162" t="s">
-        <v>865</v>
+        <v>731</v>
       </c>
       <c r="B245" s="162" t="s">
         <v>997</v>
@@ -39298,7 +39274,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="162" t="s">
-        <v>865</v>
+        <v>731</v>
       </c>
       <c r="B246" s="162" t="s">
         <v>999</v>
@@ -39325,7 +39301,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="162" t="s">
-        <v>865</v>
+        <v>731</v>
       </c>
       <c r="B247" s="162" t="s">
         <v>1001</v>
@@ -39352,7 +39328,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="162" t="s">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="B248" s="162" t="s">
         <v>1003</v>
@@ -39379,7 +39355,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="162" t="s">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="B249" s="162" t="s">
         <v>1005</v>
@@ -39406,7 +39382,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="125" t="s">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="B250" s="125" t="s">
         <v>1007</v>
@@ -39433,7 +39409,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="162" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="B251" s="162" t="s">
         <v>1117</v>
@@ -39460,7 +39436,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="162" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="B252" s="162" t="s">
         <v>1119</v>
@@ -39487,7 +39463,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="162" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="B253" s="162" t="s">
         <v>1121</v>
@@ -39514,7 +39490,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="162" t="s">
-        <v>857</v>
+        <v>867</v>
       </c>
       <c r="B254" s="162" t="s">
         <v>1123</v>
@@ -39541,7 +39517,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="162" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="B255" s="162" t="s">
         <v>1125</v>
@@ -39568,7 +39544,7 @@
     </row>
     <row r="256" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="163" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="B256" s="163" t="s">
         <v>1127</v>
@@ -39593,7 +39569,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="162" t="s">
         <v>690</v>
       </c>
@@ -39620,7 +39596,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="162" t="s">
         <v>693</v>
       </c>
@@ -39647,7 +39623,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="162" t="s">
         <v>695</v>
       </c>
@@ -39674,7 +39650,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="162" t="s">
         <v>697</v>
       </c>
@@ -39701,7 +39677,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="162" t="s">
         <v>699</v>
       </c>
@@ -39728,7 +39704,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="162" t="s">
         <v>701</v>
       </c>
@@ -39755,7 +39731,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="162" t="s">
         <v>703</v>
       </c>
@@ -39782,7 +39758,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="162" t="s">
         <v>705</v>
       </c>
@@ -39809,7 +39785,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="162" t="s">
         <v>707</v>
       </c>
@@ -39836,7 +39812,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="162" t="s">
         <v>709</v>
       </c>
@@ -39863,7 +39839,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="162" t="s">
         <v>711</v>
       </c>
@@ -39890,7 +39866,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="162" t="s">
         <v>713</v>
       </c>
@@ -39917,7 +39893,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="162" t="s">
         <v>715</v>
       </c>
@@ -39944,7 +39920,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="162" t="s">
         <v>717</v>
       </c>
@@ -39971,7 +39947,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="162" t="s">
         <v>719</v>
       </c>
@@ -39998,7 +39974,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="125" t="s">
         <v>721</v>
       </c>
@@ -40027,7 +40003,7 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="162" t="s">
-        <v>865</v>
+        <v>731</v>
       </c>
       <c r="B273" s="162" t="s">
         <v>997</v>
@@ -40054,7 +40030,7 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="162" t="s">
-        <v>865</v>
+        <v>731</v>
       </c>
       <c r="B274" s="162" t="s">
         <v>999</v>
@@ -40081,7 +40057,7 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="162" t="s">
-        <v>865</v>
+        <v>731</v>
       </c>
       <c r="B275" s="162" t="s">
         <v>1001</v>
@@ -40108,7 +40084,7 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="162" t="s">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="B276" s="162" t="s">
         <v>1003</v>
@@ -40135,7 +40111,7 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="162" t="s">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="B277" s="162" t="s">
         <v>1005</v>
@@ -40162,7 +40138,7 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="125" t="s">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="B278" s="125" t="s">
         <v>1007</v>
@@ -40187,7 +40163,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="126" t="s">
         <v>727</v>
       </c>
@@ -40214,7 +40190,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="162" t="s">
         <v>825</v>
       </c>
@@ -40241,7 +40217,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="162" t="s">
         <v>827</v>
       </c>
@@ -40268,7 +40244,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="162" t="s">
         <v>829</v>
       </c>
@@ -40295,7 +40271,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="162" t="s">
         <v>831</v>
       </c>
@@ -40322,7 +40298,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="162" t="s">
         <v>833</v>
       </c>
@@ -40349,7 +40325,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="162" t="s">
         <v>835</v>
       </c>
@@ -40376,7 +40352,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="162" t="s">
         <v>837</v>
       </c>
@@ -40403,7 +40379,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="162" t="s">
         <v>839</v>
       </c>
@@ -40430,7 +40406,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="162" t="s">
         <v>841</v>
       </c>
@@ -40457,7 +40433,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="162" t="s">
         <v>843</v>
       </c>
@@ -40484,7 +40460,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="162" t="s">
         <v>845</v>
       </c>
@@ -40511,7 +40487,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="162" t="s">
         <v>847</v>
       </c>
@@ -40538,7 +40514,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="162" t="s">
         <v>849</v>
       </c>
@@ -40565,7 +40541,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="162" t="s">
         <v>851</v>
       </c>
@@ -40592,7 +40568,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="162" t="s">
         <v>853</v>
       </c>
@@ -40619,7 +40595,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="125" t="s">
         <v>855</v>
       </c>
@@ -40648,7 +40624,7 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="162" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="B296" s="162" t="s">
         <v>1117</v>
@@ -40675,7 +40651,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="162" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="B297" s="162" t="s">
         <v>1119</v>
@@ -40702,7 +40678,7 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="162" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="B298" s="162" t="s">
         <v>1121</v>
@@ -40729,7 +40705,7 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="162" t="s">
-        <v>857</v>
+        <v>867</v>
       </c>
       <c r="B299" s="162" t="s">
         <v>1123</v>
@@ -40756,7 +40732,7 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="162" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="B300" s="162" t="s">
         <v>1125</v>
@@ -40783,7 +40759,7 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="125" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="B301" s="125" t="s">
         <v>1127</v>
@@ -40808,7 +40784,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="164" t="s">
         <v>861</v>
       </c>
@@ -40848,12 +40824,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF72B4F-11A9-43AD-A6E8-263DE95229B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P305"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <pane ySplit="2" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A252" sqref="A252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47352,7 +47328,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="162" t="s">
-        <v>859</v>
+        <v>909</v>
       </c>
       <c r="B254" s="162" t="s">
         <v>1177</v>
@@ -47379,7 +47355,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="162" t="s">
-        <v>859</v>
+        <v>909</v>
       </c>
       <c r="B255" s="162" t="s">
         <v>1179</v>
@@ -47406,7 +47382,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="162" t="s">
-        <v>883</v>
+        <v>909</v>
       </c>
       <c r="B256" s="162" t="s">
         <v>1181</v>
@@ -47433,7 +47409,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="162" t="s">
-        <v>883</v>
+        <v>911</v>
       </c>
       <c r="B257" s="162" t="s">
         <v>1183</v>
@@ -47460,7 +47436,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="162" t="s">
-        <v>883</v>
+        <v>911</v>
       </c>
       <c r="B258" s="162" t="s">
         <v>1185</v>
@@ -47487,7 +47463,7 @@
     </row>
     <row r="259" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="163" t="s">
-        <v>883</v>
+        <v>911</v>
       </c>
       <c r="B259" s="163" t="s">
         <v>1187</v>
@@ -48767,7 +48743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -51864,7 +51840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P226"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -57752,7 +57728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P307"/>
   <sheetViews>
     <sheetView topLeftCell="A88" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -65711,7 +65687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P307"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -73694,7 +73670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -73758,25 +73734,25 @@
     </row>
     <row r="5" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
-      <c r="B5" s="208" t="s">
+      <c r="B5" s="212" t="s">
         <v>2745</v>
       </c>
-      <c r="C5" s="191"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="207" t="s">
+      <c r="C5" s="196"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="214" t="s">
         <v>2676</v>
       </c>
-      <c r="F5" s="192"/>
+      <c r="F5" s="197"/>
       <c r="H5" s="17"/>
-      <c r="I5" s="208" t="s">
+      <c r="I5" s="212" t="s">
         <v>2747</v>
       </c>
-      <c r="J5" s="191"/>
-      <c r="K5" s="190"/>
-      <c r="L5" s="207" t="s">
+      <c r="J5" s="196"/>
+      <c r="K5" s="189"/>
+      <c r="L5" s="214" t="s">
         <v>2678</v>
       </c>
-      <c r="M5" s="192"/>
+      <c r="M5" s="197"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
@@ -74025,25 +74001,25 @@
     </row>
     <row r="14" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
-      <c r="B14" s="208" t="s">
+      <c r="B14" s="212" t="s">
         <v>2779</v>
       </c>
-      <c r="C14" s="191"/>
-      <c r="D14" s="190"/>
-      <c r="E14" s="207" t="s">
+      <c r="C14" s="196"/>
+      <c r="D14" s="189"/>
+      <c r="E14" s="214" t="s">
         <v>2713</v>
       </c>
-      <c r="F14" s="192"/>
+      <c r="F14" s="197"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="208" t="s">
+      <c r="I14" s="212" t="s">
         <v>2781</v>
       </c>
-      <c r="J14" s="191"/>
-      <c r="K14" s="190"/>
-      <c r="L14" s="207" t="s">
+      <c r="J14" s="196"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="214" t="s">
         <v>2714</v>
       </c>
-      <c r="M14" s="192"/>
+      <c r="M14" s="197"/>
     </row>
     <row r="15" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
@@ -74298,25 +74274,25 @@
     </row>
     <row r="24" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
-      <c r="B24" s="208" t="s">
+      <c r="B24" s="212" t="s">
         <v>3575</v>
       </c>
-      <c r="C24" s="191"/>
-      <c r="D24" s="190"/>
-      <c r="E24" s="214" t="s">
+      <c r="C24" s="196"/>
+      <c r="D24" s="189"/>
+      <c r="E24" s="213" t="s">
         <v>2746</v>
       </c>
-      <c r="F24" s="192"/>
+      <c r="F24" s="197"/>
       <c r="H24" s="17"/>
-      <c r="I24" s="208" t="s">
+      <c r="I24" s="212" t="s">
         <v>3577</v>
       </c>
-      <c r="J24" s="191"/>
-      <c r="K24" s="190"/>
-      <c r="L24" s="207" t="s">
+      <c r="J24" s="196"/>
+      <c r="K24" s="189"/>
+      <c r="L24" s="214" t="s">
         <v>2748</v>
       </c>
-      <c r="M24" s="192"/>
+      <c r="M24" s="197"/>
     </row>
     <row r="25" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
@@ -74569,25 +74545,25 @@
     </row>
     <row r="33" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
-      <c r="B33" s="208" t="s">
+      <c r="B33" s="212" t="s">
         <v>3578</v>
       </c>
-      <c r="C33" s="191"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="214" t="s">
+      <c r="C33" s="196"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="213" t="s">
         <v>2780</v>
       </c>
-      <c r="F33" s="192"/>
+      <c r="F33" s="197"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="208" t="s">
+      <c r="I33" s="212" t="s">
         <v>3576</v>
       </c>
-      <c r="J33" s="191"/>
-      <c r="K33" s="190"/>
-      <c r="L33" s="207" t="s">
+      <c r="J33" s="196"/>
+      <c r="K33" s="189"/>
+      <c r="L33" s="214" t="s">
         <v>2782</v>
       </c>
-      <c r="M33" s="192"/>
+      <c r="M33" s="197"/>
     </row>
     <row r="34" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
@@ -74856,38 +74832,38 @@
       <c r="M42" s="141"/>
     </row>
     <row r="43" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A43" s="209" t="s">
+      <c r="A43" s="207" t="s">
         <v>2679</v>
       </c>
-      <c r="B43" s="209" t="s">
+      <c r="B43" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="211" t="s">
+      <c r="C43" s="209" t="s">
         <v>2814</v>
       </c>
-      <c r="D43" s="190"/>
-      <c r="E43" s="211" t="s">
+      <c r="D43" s="189"/>
+      <c r="E43" s="209" t="s">
         <v>2815</v>
       </c>
-      <c r="F43" s="190"/>
-      <c r="H43" s="209" t="s">
+      <c r="F43" s="189"/>
+      <c r="H43" s="207" t="s">
         <v>2679</v>
       </c>
-      <c r="I43" s="209" t="s">
+      <c r="I43" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="J43" s="211" t="s">
+      <c r="J43" s="209" t="s">
         <v>2815</v>
       </c>
-      <c r="K43" s="190"/>
-      <c r="L43" s="211" t="s">
+      <c r="K43" s="189"/>
+      <c r="L43" s="209" t="s">
         <v>2816</v>
       </c>
-      <c r="M43" s="190"/>
+      <c r="M43" s="189"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="210"/>
-      <c r="B44" s="210"/>
+      <c r="A44" s="208"/>
+      <c r="B44" s="208"/>
       <c r="C44" s="52" t="s">
         <v>368</v>
       </c>
@@ -74900,8 +74876,8 @@
       <c r="F44" s="53" t="s">
         <v>370</v>
       </c>
-      <c r="H44" s="210"/>
-      <c r="I44" s="210"/>
+      <c r="H44" s="208"/>
+      <c r="I44" s="208"/>
       <c r="J44" s="52" t="s">
         <v>368</v>
       </c>
@@ -75084,25 +75060,25 @@
     </row>
     <row r="52" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
-      <c r="B52" s="208" t="s">
+      <c r="B52" s="212" t="s">
         <v>2675</v>
       </c>
-      <c r="C52" s="191"/>
-      <c r="D52" s="190"/>
-      <c r="E52" s="214" t="s">
+      <c r="C52" s="196"/>
+      <c r="D52" s="189"/>
+      <c r="E52" s="213" t="s">
         <v>2846</v>
       </c>
-      <c r="F52" s="192"/>
+      <c r="F52" s="197"/>
       <c r="H52" s="17"/>
-      <c r="I52" s="208" t="s">
+      <c r="I52" s="212" t="s">
         <v>2677</v>
       </c>
-      <c r="J52" s="191"/>
-      <c r="K52" s="190"/>
-      <c r="L52" s="214" t="s">
+      <c r="J52" s="196"/>
+      <c r="K52" s="189"/>
+      <c r="L52" s="213" t="s">
         <v>2847</v>
       </c>
-      <c r="M52" s="192"/>
+      <c r="M52" s="197"/>
     </row>
     <row r="53" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
@@ -75355,25 +75331,25 @@
     </row>
     <row r="61" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
-      <c r="B61" s="208" t="s">
+      <c r="B61" s="212" t="s">
         <v>2675</v>
       </c>
-      <c r="C61" s="191"/>
-      <c r="D61" s="190"/>
-      <c r="E61" s="214" t="s">
+      <c r="C61" s="196"/>
+      <c r="D61" s="189"/>
+      <c r="E61" s="213" t="s">
         <v>2879</v>
       </c>
-      <c r="F61" s="192"/>
+      <c r="F61" s="197"/>
       <c r="H61" s="17"/>
-      <c r="I61" s="208" t="s">
+      <c r="I61" s="212" t="s">
         <v>2677</v>
       </c>
-      <c r="J61" s="191"/>
-      <c r="K61" s="190"/>
-      <c r="L61" s="214" t="s">
+      <c r="J61" s="196"/>
+      <c r="K61" s="189"/>
+      <c r="L61" s="213" t="s">
         <v>2880</v>
       </c>
-      <c r="M61" s="192"/>
+      <c r="M61" s="197"/>
     </row>
     <row r="62" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
@@ -75615,36 +75591,36 @@
     </row>
     <row r="68" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="1:13" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="212" t="s">
+      <c r="A69" s="210" t="s">
         <v>2813</v>
       </c>
-      <c r="B69" s="213"/>
-      <c r="C69" s="213"/>
-      <c r="D69" s="213"/>
-      <c r="E69" s="213"/>
-      <c r="F69" s="213"/>
+      <c r="B69" s="211"/>
+      <c r="C69" s="211"/>
+      <c r="D69" s="211"/>
+      <c r="E69" s="211"/>
+      <c r="F69" s="211"/>
       <c r="M69" s="46"/>
     </row>
     <row r="70" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A70" s="209" t="s">
+      <c r="A70" s="207" t="s">
         <v>2679</v>
       </c>
-      <c r="B70" s="209" t="s">
+      <c r="B70" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="C70" s="211" t="s">
+      <c r="C70" s="209" t="s">
         <v>2911</v>
       </c>
-      <c r="D70" s="190"/>
-      <c r="E70" s="211" t="s">
+      <c r="D70" s="189"/>
+      <c r="E70" s="209" t="s">
         <v>2912</v>
       </c>
-      <c r="F70" s="190"/>
+      <c r="F70" s="189"/>
       <c r="M70" s="46"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="210"/>
-      <c r="B71" s="210"/>
+      <c r="A71" s="208"/>
+      <c r="B71" s="208"/>
       <c r="C71" s="52" t="s">
         <v>368</v>
       </c>
@@ -75758,25 +75734,25 @@
     </row>
     <row r="79" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A79" s="17"/>
-      <c r="B79" s="208" t="s">
+      <c r="B79" s="212" t="s">
         <v>2675</v>
       </c>
-      <c r="C79" s="191"/>
-      <c r="D79" s="190"/>
-      <c r="E79" s="214" t="s">
+      <c r="C79" s="196"/>
+      <c r="D79" s="189"/>
+      <c r="E79" s="213" t="s">
         <v>2924</v>
       </c>
-      <c r="F79" s="192"/>
+      <c r="F79" s="197"/>
       <c r="H79" s="17"/>
-      <c r="I79" s="208" t="s">
+      <c r="I79" s="212" t="s">
         <v>2677</v>
       </c>
-      <c r="J79" s="191"/>
-      <c r="K79" s="190"/>
-      <c r="L79" s="214" t="s">
+      <c r="J79" s="196"/>
+      <c r="K79" s="189"/>
+      <c r="L79" s="213" t="s">
         <v>2925</v>
       </c>
-      <c r="M79" s="192"/>
+      <c r="M79" s="197"/>
     </row>
     <row r="80" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="16" t="s">
@@ -76028,25 +76004,25 @@
     </row>
     <row r="88" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A88" s="17"/>
-      <c r="B88" s="208" t="s">
+      <c r="B88" s="212" t="s">
         <v>2675</v>
       </c>
-      <c r="C88" s="191"/>
-      <c r="D88" s="190"/>
-      <c r="E88" s="214" t="s">
+      <c r="C88" s="196"/>
+      <c r="D88" s="189"/>
+      <c r="E88" s="213" t="s">
         <v>2957</v>
       </c>
-      <c r="F88" s="192"/>
+      <c r="F88" s="197"/>
       <c r="H88" s="17"/>
-      <c r="I88" s="208" t="s">
+      <c r="I88" s="212" t="s">
         <v>2677</v>
       </c>
-      <c r="J88" s="191"/>
-      <c r="K88" s="190"/>
-      <c r="L88" s="214" t="s">
+      <c r="J88" s="196"/>
+      <c r="K88" s="189"/>
+      <c r="L88" s="213" t="s">
         <v>2958</v>
       </c>
-      <c r="M88" s="192"/>
+      <c r="M88" s="197"/>
     </row>
     <row r="89" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="16" t="s">
@@ -76291,36 +76267,36 @@
       <c r="M95" s="46"/>
     </row>
     <row r="96" spans="1:13" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="212" t="s">
+      <c r="A96" s="210" t="s">
         <v>2813</v>
       </c>
-      <c r="B96" s="213"/>
-      <c r="C96" s="213"/>
-      <c r="D96" s="213"/>
-      <c r="E96" s="213"/>
-      <c r="F96" s="213"/>
+      <c r="B96" s="211"/>
+      <c r="C96" s="211"/>
+      <c r="D96" s="211"/>
+      <c r="E96" s="211"/>
+      <c r="F96" s="211"/>
       <c r="M96" s="46"/>
     </row>
     <row r="97" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A97" s="209" t="s">
+      <c r="A97" s="207" t="s">
         <v>2679</v>
       </c>
-      <c r="B97" s="209" t="s">
+      <c r="B97" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="C97" s="211" t="s">
+      <c r="C97" s="209" t="s">
         <v>2989</v>
       </c>
-      <c r="D97" s="190"/>
-      <c r="E97" s="211" t="s">
+      <c r="D97" s="189"/>
+      <c r="E97" s="209" t="s">
         <v>2990</v>
       </c>
-      <c r="F97" s="190"/>
+      <c r="F97" s="189"/>
       <c r="M97" s="46"/>
     </row>
     <row r="98" spans="1:13" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="210"/>
-      <c r="B98" s="210"/>
+      <c r="A98" s="208"/>
+      <c r="B98" s="208"/>
       <c r="C98" s="52" t="s">
         <v>368</v>
       </c>
@@ -76437,25 +76413,25 @@
     </row>
     <row r="106" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A106" s="17"/>
-      <c r="B106" s="208" t="s">
+      <c r="B106" s="212" t="s">
         <v>2675</v>
       </c>
-      <c r="C106" s="191"/>
-      <c r="D106" s="190"/>
-      <c r="E106" s="214" t="s">
+      <c r="C106" s="196"/>
+      <c r="D106" s="189"/>
+      <c r="E106" s="213" t="s">
         <v>3004</v>
       </c>
-      <c r="F106" s="192"/>
+      <c r="F106" s="197"/>
       <c r="H106" s="17"/>
-      <c r="I106" s="208" t="s">
+      <c r="I106" s="212" t="s">
         <v>2677</v>
       </c>
-      <c r="J106" s="191"/>
-      <c r="K106" s="190"/>
-      <c r="L106" s="214" t="s">
+      <c r="J106" s="196"/>
+      <c r="K106" s="189"/>
+      <c r="L106" s="213" t="s">
         <v>3005</v>
       </c>
-      <c r="M106" s="192"/>
+      <c r="M106" s="197"/>
     </row>
     <row r="107" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="16" t="s">
@@ -76708,25 +76684,25 @@
     </row>
     <row r="115" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A115" s="17"/>
-      <c r="B115" s="208" t="s">
+      <c r="B115" s="212" t="s">
         <v>2675</v>
       </c>
-      <c r="C115" s="191"/>
-      <c r="D115" s="190"/>
-      <c r="E115" s="214" t="s">
+      <c r="C115" s="196"/>
+      <c r="D115" s="189"/>
+      <c r="E115" s="213" t="s">
         <v>3037</v>
       </c>
-      <c r="F115" s="192"/>
+      <c r="F115" s="197"/>
       <c r="H115" s="17"/>
-      <c r="I115" s="208" t="s">
+      <c r="I115" s="212" t="s">
         <v>2677</v>
       </c>
-      <c r="J115" s="191"/>
-      <c r="K115" s="190"/>
-      <c r="L115" s="214" t="s">
+      <c r="J115" s="196"/>
+      <c r="K115" s="189"/>
+      <c r="L115" s="213" t="s">
         <v>3038</v>
       </c>
-      <c r="M115" s="192"/>
+      <c r="M115" s="197"/>
     </row>
     <row r="116" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="16" t="s">
@@ -76968,36 +76944,36 @@
     </row>
     <row r="122" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="123" spans="1:13" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="212" t="s">
+      <c r="A123" s="210" t="s">
         <v>2813</v>
       </c>
-      <c r="B123" s="213"/>
-      <c r="C123" s="213"/>
-      <c r="D123" s="213"/>
-      <c r="E123" s="213"/>
-      <c r="F123" s="213"/>
+      <c r="B123" s="211"/>
+      <c r="C123" s="211"/>
+      <c r="D123" s="211"/>
+      <c r="E123" s="211"/>
+      <c r="F123" s="211"/>
       <c r="M123" s="46"/>
     </row>
     <row r="124" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A124" s="209" t="s">
+      <c r="A124" s="207" t="s">
         <v>2679</v>
       </c>
-      <c r="B124" s="209" t="s">
+      <c r="B124" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="C124" s="211" t="s">
+      <c r="C124" s="209" t="s">
         <v>3069</v>
       </c>
-      <c r="D124" s="190"/>
-      <c r="E124" s="211" t="s">
+      <c r="D124" s="189"/>
+      <c r="E124" s="209" t="s">
         <v>3070</v>
       </c>
-      <c r="F124" s="190"/>
+      <c r="F124" s="189"/>
       <c r="M124" s="46"/>
     </row>
     <row r="125" spans="1:13" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="210"/>
-      <c r="B125" s="210"/>
+      <c r="A125" s="208"/>
+      <c r="B125" s="208"/>
       <c r="C125" s="52" t="s">
         <v>368</v>
       </c>
@@ -77114,25 +77090,25 @@
     </row>
     <row r="133" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A133" s="17"/>
-      <c r="B133" s="208" t="s">
+      <c r="B133" s="212" t="s">
         <v>2675</v>
       </c>
-      <c r="C133" s="191"/>
-      <c r="D133" s="190"/>
-      <c r="E133" s="214" t="s">
+      <c r="C133" s="196"/>
+      <c r="D133" s="189"/>
+      <c r="E133" s="213" t="s">
         <v>3084</v>
       </c>
-      <c r="F133" s="192"/>
+      <c r="F133" s="197"/>
       <c r="H133" s="17"/>
-      <c r="I133" s="208" t="s">
+      <c r="I133" s="212" t="s">
         <v>2677</v>
       </c>
-      <c r="J133" s="191"/>
-      <c r="K133" s="190"/>
-      <c r="L133" s="214" t="s">
+      <c r="J133" s="196"/>
+      <c r="K133" s="189"/>
+      <c r="L133" s="213" t="s">
         <v>3085</v>
       </c>
-      <c r="M133" s="192"/>
+      <c r="M133" s="197"/>
     </row>
     <row r="134" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="16" t="s">
@@ -77385,25 +77361,25 @@
     </row>
     <row r="142" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A142" s="17"/>
-      <c r="B142" s="208" t="s">
+      <c r="B142" s="212" t="s">
         <v>2675</v>
       </c>
-      <c r="C142" s="191"/>
-      <c r="D142" s="190"/>
-      <c r="E142" s="214" t="s">
+      <c r="C142" s="196"/>
+      <c r="D142" s="189"/>
+      <c r="E142" s="213" t="s">
         <v>3085</v>
       </c>
-      <c r="F142" s="192"/>
+      <c r="F142" s="197"/>
       <c r="H142" s="17"/>
-      <c r="I142" s="208" t="s">
+      <c r="I142" s="212" t="s">
         <v>2677</v>
       </c>
-      <c r="J142" s="191"/>
-      <c r="K142" s="190"/>
-      <c r="L142" s="214" t="s">
+      <c r="J142" s="196"/>
+      <c r="K142" s="189"/>
+      <c r="L142" s="213" t="s">
         <v>3117</v>
       </c>
-      <c r="M142" s="192"/>
+      <c r="M142" s="197"/>
     </row>
     <row r="143" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="16" t="s">
@@ -77658,25 +77634,25 @@
     </row>
     <row r="152" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A152" s="17"/>
-      <c r="B152" s="208" t="s">
+      <c r="B152" s="212" t="s">
         <v>2675</v>
       </c>
-      <c r="C152" s="191"/>
-      <c r="D152" s="190"/>
-      <c r="E152" s="214" t="s">
+      <c r="C152" s="196"/>
+      <c r="D152" s="189"/>
+      <c r="E152" s="213" t="s">
         <v>3149</v>
       </c>
-      <c r="F152" s="192"/>
+      <c r="F152" s="197"/>
       <c r="H152" s="17"/>
-      <c r="I152" s="208" t="s">
+      <c r="I152" s="212" t="s">
         <v>2677</v>
       </c>
-      <c r="J152" s="191"/>
-      <c r="K152" s="190"/>
-      <c r="L152" s="214" t="s">
+      <c r="J152" s="196"/>
+      <c r="K152" s="189"/>
+      <c r="L152" s="213" t="s">
         <v>3150</v>
       </c>
-      <c r="M152" s="192"/>
+      <c r="M152" s="197"/>
     </row>
     <row r="153" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="16" t="s">
@@ -77929,25 +77905,25 @@
     </row>
     <row r="161" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A161" s="17"/>
-      <c r="B161" s="208" t="s">
+      <c r="B161" s="212" t="s">
         <v>2675</v>
       </c>
-      <c r="C161" s="191"/>
-      <c r="D161" s="190"/>
-      <c r="E161" s="214" t="s">
+      <c r="C161" s="196"/>
+      <c r="D161" s="189"/>
+      <c r="E161" s="213" t="s">
         <v>3182</v>
       </c>
-      <c r="F161" s="192"/>
+      <c r="F161" s="197"/>
       <c r="H161" s="17"/>
-      <c r="I161" s="208" t="s">
+      <c r="I161" s="212" t="s">
         <v>2677</v>
       </c>
-      <c r="J161" s="191"/>
-      <c r="K161" s="190"/>
-      <c r="L161" s="214" t="s">
+      <c r="J161" s="196"/>
+      <c r="K161" s="189"/>
+      <c r="L161" s="213" t="s">
         <v>3183</v>
       </c>
-      <c r="M161" s="192"/>
+      <c r="M161" s="197"/>
     </row>
     <row r="162" spans="1:13" s="3" customFormat="1" ht="15.75" customHeight="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="16" t="s">
@@ -78189,34 +78165,34 @@
     </row>
     <row r="168" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="169" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="212" t="s">
+      <c r="A169" s="210" t="s">
         <v>2813</v>
       </c>
-      <c r="B169" s="213"/>
-      <c r="C169" s="213"/>
-      <c r="D169" s="213"/>
-      <c r="E169" s="213"/>
-      <c r="F169" s="213"/>
+      <c r="B169" s="211"/>
+      <c r="C169" s="211"/>
+      <c r="D169" s="211"/>
+      <c r="E169" s="211"/>
+      <c r="F169" s="211"/>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170" s="209" t="s">
+      <c r="A170" s="207" t="s">
         <v>2679</v>
       </c>
-      <c r="B170" s="209" t="s">
+      <c r="B170" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="C170" s="211" t="s">
+      <c r="C170" s="209" t="s">
         <v>2989</v>
       </c>
-      <c r="D170" s="190"/>
-      <c r="E170" s="211" t="s">
+      <c r="D170" s="189"/>
+      <c r="E170" s="209" t="s">
         <v>2990</v>
       </c>
-      <c r="F170" s="190"/>
+      <c r="F170" s="189"/>
     </row>
     <row r="171" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="210"/>
-      <c r="B171" s="210"/>
+      <c r="A171" s="208"/>
+      <c r="B171" s="208"/>
       <c r="C171" s="52" t="s">
         <v>368</v>
       </c>
@@ -78312,47 +78288,31 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="A169:F169"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="I142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="I133:K133"/>
+    <mergeCell ref="L152:M152"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="I161:K161"/>
+    <mergeCell ref="L161:M161"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="I152:K152"/>
     <mergeCell ref="I115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="B79:D79"/>
@@ -78369,34 +78329,50 @@
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="B115:D115"/>
     <mergeCell ref="E115:F115"/>
-    <mergeCell ref="L152:M152"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="I161:K161"/>
-    <mergeCell ref="L161:M161"/>
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="I152:K152"/>
-    <mergeCell ref="L133:M133"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="I142:K142"/>
-    <mergeCell ref="L142:M142"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="I133:K133"/>
-    <mergeCell ref="A169:F169"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:M24"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
